--- a/sky_analysis/data_min.xlsx
+++ b/sky_analysis/data_min.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1158">
   <si>
     <t>PT</t>
   </si>
@@ -1622,9 +1622,6 @@
     <t>The Dishevelled/EGL-10/Pleckstrin (DEP) domain-containing (DEPDC) proteins have seven members. However, whether this superfamily can be distinguished from other proteins based only on the amino acid sequences, remains unknown. Here, we describe a computational method to segregate DEPDCs and non-DEPDCs. First, we examined the Pfam numbers of the known DEPDCs and used the longest sequences for each Pfam to construct a phylogenetic tree. Subsequently, we extracted 188-dimensional (188D) and 20D features of DEPDCs and non-DEPDCs and classified them with random forest classifier. We also mined the motifs of human DEPDCs to find the related domains. Finally, we designed experimental verification methods of human DEPDC expression at the mRNA level in hepatocellular carcinoma (HCC) and adjacent normal tissues. The phylogenetic analysis showed that the DEPDCs superfamily can be divided into three clusters. Moreover, the 188D and 20D features can both be used to effectively distinguish the two protein types. Motif analysis revealed that the DEP and RhoGAP domain was common in human DEPDCs, human HCC and the adjacent tissues that widely expressed DEPDCs. However, their regulation was not identical. In conclusion, we successfully constructed a binary classifier for DEPDCs and experimentally verified their expression in human HCC tissues.</t>
   </si>
   <si>
-    <t>[Liao, Zhijun] Fujian Med Univ, Sch Basic Med Sci, Dept Biochem &amp; Mol Biol, Fuzhou 350122, Peoples R China; [Liao, Zhijun; Zou, Quan] Tianjin Univ, Sch Comp Sci &amp; Technol, Tianjin 300354, Peoples R China; [Wang, Xinrui] Shanghai Jiao Tong Univ, State Key Lab Med Genom, Shanghai Inst Hematol, Rui Jin Hosp,Sch Med, Shanghai 200025, Peoples R China; [Zeng, Yeting] Dongfang Hosp, Dept Pathol, Fuzhou 350025, Peoples R China; [Zou, Quan] Nankai Univ, State Key Lab Med Chem Biol, Tianjin 300074, Peoples R China</t>
-  </si>
-  <si>
     <t>Liao, ZJ (reprint author), Fujian Med Univ, Sch Basic Med Sci, Dept Biochem &amp; Mol Biol, Fuzhou 350122, Peoples R China.; Liao, ZJ; Zou, Q (reprint author), Tianjin Univ, Sch Comp Sci &amp; Technol, Tianjin 300354, Peoples R China.</t>
   </si>
   <si>
@@ -1949,9 +1946,6 @@
     <t>A refuelable glucose alkaline fuel cell (AFC) is constructed by immobilizing methyl viologen (MV) on an activated carbon-nickel foam (AC/Ni) anode. The AFC exhibits a peak power density of 23.58 +/- 0.83 Wm(-2) at room temperature, which is more than 3 folds than that of non-immobilized control. Electrochemical impedance spectroscopy (EIS) investigations demonstrate that the internal resistance of the anode is remarkably decreased after MV immobilization. Surface morphology and composition of the anodes are characterized by field-emission scanning electron microscopy (FE-SEM) and energy-dispersive X-ray spectroscopy (EDS). Spectroscopic studies indicate that the immobilized MV is stable at alkaline conditions. The AFC is discharged through a 100 Omega external resistor for 628 hours and a specific capacity of 244.01 mAhg(-1) is obtained. Furthermore, the ability to refuel of the fuel cell is tested through multiple refuelling cycles. The refuelable glucose AFCs may provide a new realm to use carbohydrate as feedstocks for portable power sources and create an affordable pathway to renewable power. (C) 2016 Elsevier Ltd. All rights reserved.</t>
   </si>
   <si>
-    <t>[Liu, Xianhua; Li, Zi; Yang, Yulou; Liu, Peng] Tianjin Univ, Sch Environm Sci &amp; Engn, Tianjin Key Lab Indoor Air Environm Qual Control, Tianjin 300072, Peoples R China; [Zhang, Pingping] Tianjin Agr Univ, Coll Food Sci &amp; Engn, Tianjin 300072, Peoples R China</t>
-  </si>
-  <si>
     <t>Liu, XH (reprint author), Tianjin Univ, Sch Environm Sci &amp; Engn, Tianjin Key Lab Indoor Air Environm Qual Control, Tianjin 300072, Peoples R China.; Zhang, PP (reprint author), Tianjin Agr Univ, Coll Food Sci &amp; Engn, Tianjin 300072, Peoples R China.</t>
   </si>
   <si>
@@ -2076,9 +2070,6 @@
   </si>
   <si>
     <t>ZnMoO4/reduced graphene oxide composites (ZnMoO4/rGO) were successfully prepared by a simple one pot hydrothermal method, in which the synthesis of ZnMoO4 irregular plate-like crystals and the reduction of graphene oxide to rGO were simultaneously achieved. The XRD, SEM, TEM, TGA and XPS measurements were performed to illustrate the structure properties of as-prepared ZnMoO4 and ZnMoO4/rGO. It has been demonstrated that the ZnMoO4/rGO composites exhibits excellent electrochemical performance of high capacity and good stability as the anode materials of lithium ion batteries. The initial discharge capacity is 2391.2 mAhg(-1) at a current density of 100 mAr(-1). During the cycle performance test, the discharge capacity increased from the second cycle capacity of 1030 mAhg(-1) to 1454.4 inAhg(-1) after 26 cycles at 100 mAg(-1). And after 100 cycles, the retention of capacity is 61.36%. The advanced electrochemical performance can be attributed to the introduction of rGO sheets, which could greatly increase the conductivity of active materials and provide the electrons transfer paths for the ZnMoO4/rGO electrode. Besides, the rGO sheet wrapped ZnMoO4 crystals would buffer the volume changes during charge-discharge cycles. (C) 2016 Elsevier Ltd. All rights reserved.</t>
-  </si>
-  <si>
-    <t>[Xue, Ruinan; Hong, Wei; Pan, Zeng; Zhao, Huilin; Song, Yahui; Zhou, Jingkuo; Liu, Yu] Tianjin Univ, Dept Chem, Tianjin 300072, Peoples R China; [Jin, Wei] Chinese Acad Sci, Inst Proc Engn, Beijing 100190, Peoples R China</t>
   </si>
   <si>
     <t>wjin@ipe.ac.cn; tjly@tju.edu.cn</t>
@@ -3468,9 +3459,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
@@ -3502,46 +3490,24 @@
     <t>2006</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
+    <t>sdf01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Liao, Zhijun] Fujian Med Univ, Sch Basic Med Sci, Dept Biochem &amp; Mol Biol, Fuzhou 350122, Peoples R China; [Liao, Zhijun; Zou, Quan] Tianjin Univ, Sch Comp Sci &amp; Technol, Tianjin 300354, Peoples R China; [Wang, Xinrui] Shanghai Jiao Tong Univ, State Key Lab Med Genom, Shanghai Inst Hematol, Rui Jin Hosp,Sch Med, Shanghai 200025, Peoples R China; [Zeng, Yeting] Dongfang Hosp, Dept Pathol, Fuzhou 350025, Peoples R China; [Zou, Quan] Nankai Univ, State Key Lab Med Chem Biol, Tianjin 300074, Peoples R China</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Liu, Xianhua; Li, Zi; Yang, Yulou; Liu, Peng] Tianjin Univ, Sch Environm Sci &amp; Engn, Tianjin Key Lab Indoor Air Environm Qual Control, Tianjin 300072, Peoples R China; [Zhang, Pingping] Tianjin Agr Univ, Coll Food Sci &amp; Engn, Tianjin 300072, Peoples R China</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Xue, Ruinan; Hong, Wei; Pan, Zeng; Liao, Zhijun;Zhao, Huilin; Song, Yahui; Zhou, Jingkuo; Liu, Yu] Tianjin Univ, Dept Chem, Tianjin 300072, Peoples R China; [Jin, Wei] Chinese Acad Sci, Inst Proc Engn, Beijing 100190, Peoples R China</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4045,7 +4011,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4184,6 +4150,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4202,7 +4180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="50">
     <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4230,6 +4208,8 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -4248,6 +4228,8 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4549,9 +4531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W61" sqref="W61"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4561,8 +4543,9 @@
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="10" max="11" width="8.83203125" style="2"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
     <col min="23" max="23" width="26.33203125" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="2"/>
+    <col min="24" max="24" width="26.1640625" style="2" customWidth="1"/>
     <col min="33" max="33" width="8.83203125" style="2"/>
     <col min="45" max="45" width="8.83203125" customWidth="1"/>
     <col min="46" max="46" width="8.83203125" style="2"/>
@@ -4758,333 +4741,333 @@
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1145</v>
+      <c r="A2">
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AF2">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>11.542857138</v>
+      </c>
+      <c r="AH2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BE2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>55</v>
-      </c>
       <c r="BF2" t="s">
-        <v>56</v>
+        <v>1090</v>
       </c>
       <c r="BG2" t="s">
-        <v>57</v>
+        <v>1090</v>
       </c>
       <c r="BH2" t="s">
-        <v>58</v>
+        <v>1091</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>60</v>
+        <v>1092</v>
+      </c>
+      <c r="BJ2">
+        <v>27973478</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
       </c>
       <c r="U3" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>24</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>25</v>
       </c>
       <c r="AB3" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AD3" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AG3" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>69</v>
-      </c>
-      <c r="AJ3">
-        <v>69</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="BB3" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="BC3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE3">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>55</v>
       </c>
       <c r="BF3" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="BG3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="BH3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -5096,52 +5079,49 @@
         <v>67</v>
       </c>
       <c r="U4" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="V4" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AF4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG4" s="2">
-        <v>3.3142857142857101</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="AJ4">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="AK4" t="s">
         <v>78</v>
@@ -5168,22 +5148,22 @@
         <v>85</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>1149</v>
+        <v>86</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="BC4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="BE4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF4" t="s">
         <v>91</v>
@@ -5195,27 +5175,27 @@
         <v>93</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>675</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>676</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>635</v>
       </c>
       <c r="N5" t="s">
         <v>66</v>
@@ -5224,120 +5204,117 @@
         <v>67</v>
       </c>
       <c r="U5" t="s">
-        <v>117</v>
+        <v>678</v>
       </c>
       <c r="V5" t="s">
-        <v>118</v>
+        <v>679</v>
       </c>
       <c r="W5" t="s">
-        <v>119</v>
+        <v>680</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>121</v>
+        <v>1156</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>681</v>
       </c>
       <c r="AC5" t="s">
-        <v>123</v>
+        <v>682</v>
       </c>
       <c r="AD5" t="s">
-        <v>124</v>
+        <v>683</v>
       </c>
       <c r="AE5" t="s">
-        <v>125</v>
+        <v>684</v>
       </c>
       <c r="AF5">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG5" s="2">
-        <v>3.8285714285714199</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="AJ5">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AL5" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM5" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AN5" t="s">
-        <v>126</v>
+        <v>644</v>
       </c>
       <c r="AO5" t="s">
-        <v>127</v>
+        <v>645</v>
       </c>
       <c r="AQ5" t="s">
-        <v>128</v>
+        <v>646</v>
       </c>
       <c r="AR5" t="s">
-        <v>129</v>
+        <v>647</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>85</v>
+        <v>648</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>1150</v>
+        <v>86</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>131</v>
+        <v>685</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>132</v>
+        <v>686</v>
       </c>
       <c r="BC5" t="s">
-        <v>133</v>
+        <v>687</v>
       </c>
       <c r="BE5">
         <v>7</v>
       </c>
       <c r="BF5" t="s">
-        <v>134</v>
+        <v>653</v>
       </c>
       <c r="BG5" t="s">
-        <v>135</v>
+        <v>653</v>
       </c>
       <c r="BH5" t="s">
-        <v>136</v>
+        <v>688</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>137</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>690</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>691</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>140</v>
+        <v>692</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>116</v>
+        <v>693</v>
       </c>
       <c r="N6" t="s">
         <v>66</v>
@@ -5346,114 +5323,117 @@
         <v>67</v>
       </c>
       <c r="U6" t="s">
-        <v>141</v>
+        <v>694</v>
       </c>
       <c r="V6" t="s">
-        <v>142</v>
+        <v>695</v>
       </c>
       <c r="W6" t="s">
-        <v>143</v>
+        <v>696</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>144</v>
+        <v>697</v>
       </c>
       <c r="Y6" t="s">
-        <v>145</v>
+        <v>698</v>
       </c>
       <c r="Z6" t="s">
-        <v>146</v>
+        <v>699</v>
       </c>
       <c r="AE6" t="s">
-        <v>147</v>
+        <v>700</v>
       </c>
       <c r="AF6">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="AG6" s="2">
-        <v>4.3428571428571399</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>78</v>
+        <v>701</v>
       </c>
       <c r="AL6" t="s">
-        <v>79</v>
+        <v>702</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>703</v>
       </c>
       <c r="AN6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>127</v>
+        <v>704</v>
       </c>
       <c r="AQ6" t="s">
-        <v>128</v>
+        <v>693</v>
       </c>
       <c r="AR6" t="s">
-        <v>129</v>
+        <v>705</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>85</v>
+        <v>648</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>1148</v>
+        <v>86</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>130</v>
+        <v>706</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>148</v>
+        <v>707</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>149</v>
+        <v>708</v>
       </c>
       <c r="BC6" t="s">
-        <v>150</v>
+        <v>709</v>
       </c>
       <c r="BE6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF6" t="s">
-        <v>134</v>
+        <v>710</v>
       </c>
       <c r="BG6" t="s">
-        <v>135</v>
+        <v>710</v>
       </c>
       <c r="BH6" t="s">
-        <v>136</v>
+        <v>711</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>151</v>
+        <v>712</v>
+      </c>
+      <c r="BJ6">
+        <v>27784000</v>
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>713</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>714</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>154</v>
+        <v>715</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>155</v>
+        <v>716</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
@@ -5462,376 +5442,358 @@
         <v>67</v>
       </c>
       <c r="V7" t="s">
-        <v>156</v>
+        <v>717</v>
       </c>
       <c r="W7" t="s">
-        <v>157</v>
+        <v>718</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>158</v>
+        <v>719</v>
       </c>
       <c r="Y7" t="s">
-        <v>159</v>
+        <v>720</v>
       </c>
       <c r="Z7" t="s">
-        <v>160</v>
+        <v>721</v>
       </c>
       <c r="AC7" t="s">
-        <v>161</v>
+        <v>722</v>
       </c>
       <c r="AD7" t="s">
-        <v>162</v>
+        <v>723</v>
       </c>
       <c r="AE7" t="s">
-        <v>163</v>
+        <v>724</v>
       </c>
       <c r="AF7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="2">
-        <v>4.8571428571428497</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="AL7" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="AM7" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="AN7" t="s">
-        <v>167</v>
+        <v>725</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>726</v>
       </c>
       <c r="AQ7" t="s">
-        <v>168</v>
+        <v>727</v>
       </c>
       <c r="AR7" t="s">
-        <v>169</v>
+        <v>728</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>170</v>
+        <v>648</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>1147</v>
+        <v>86</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>171</v>
+        <v>519</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>171</v>
+        <v>347</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="BC7" t="s">
-        <v>172</v>
+        <v>731</v>
       </c>
       <c r="BE7">
         <v>8</v>
       </c>
       <c r="BF7" t="s">
-        <v>173</v>
+        <v>732</v>
       </c>
       <c r="BG7" t="s">
-        <v>174</v>
+        <v>733</v>
       </c>
       <c r="BH7" t="s">
-        <v>175</v>
+        <v>734</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>176</v>
+        <v>735</v>
+      </c>
+      <c r="BJ7">
+        <v>27993077</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>926</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>927</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>928</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>180</v>
+        <v>528</v>
       </c>
       <c r="N8" t="s">
         <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>183</v>
-      </c>
-      <c r="R8" t="s">
-        <v>184</v>
-      </c>
-      <c r="U8" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="V8" t="s">
-        <v>186</v>
+        <v>929</v>
       </c>
       <c r="W8" t="s">
-        <v>187</v>
+        <v>930</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>188</v>
+        <v>931</v>
       </c>
       <c r="Y8" t="s">
-        <v>189</v>
+        <v>932</v>
       </c>
       <c r="Z8" t="s">
-        <v>190</v>
+        <v>933</v>
       </c>
       <c r="AC8" t="s">
-        <v>191</v>
+        <v>934</v>
       </c>
       <c r="AD8" t="s">
-        <v>192</v>
+        <v>935</v>
       </c>
       <c r="AE8" t="s">
-        <v>193</v>
+        <v>936</v>
       </c>
       <c r="AF8">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG8" s="2">
-        <v>5.3714285714285701</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AL8" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AN8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>195</v>
+        <v>538</v>
       </c>
       <c r="AQ8" t="s">
-        <v>196</v>
+        <v>539</v>
       </c>
       <c r="AR8" t="s">
-        <v>197</v>
+        <v>540</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>198</v>
+        <v>917</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>1151</v>
+        <v>86</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="BC8" t="s">
-        <v>202</v>
+        <v>937</v>
       </c>
       <c r="BE8">
         <v>11</v>
       </c>
       <c r="BF8" t="s">
-        <v>203</v>
+        <v>542</v>
       </c>
       <c r="BG8" t="s">
-        <v>204</v>
+        <v>543</v>
       </c>
       <c r="BH8" t="s">
-        <v>205</v>
+        <v>938</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>206</v>
+        <v>939</v>
       </c>
       <c r="BJ8">
-        <v>27288877</v>
+        <v>27976672</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>940</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>941</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>209</v>
+        <v>942</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>210</v>
+        <v>943</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>944</v>
       </c>
       <c r="O9" t="s">
         <v>67</v>
       </c>
       <c r="U9" t="s">
-        <v>211</v>
+        <v>945</v>
       </c>
       <c r="V9" t="s">
-        <v>212</v>
+        <v>946</v>
       </c>
       <c r="W9" t="s">
-        <v>213</v>
+        <v>947</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>214</v>
+        <v>948</v>
       </c>
       <c r="Y9" t="s">
-        <v>215</v>
+        <v>949</v>
       </c>
       <c r="Z9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>217</v>
+        <v>950</v>
       </c>
       <c r="AC9" t="s">
-        <v>218</v>
+        <v>951</v>
       </c>
       <c r="AD9" t="s">
-        <v>219</v>
+        <v>952</v>
       </c>
       <c r="AE9" t="s">
-        <v>220</v>
+        <v>953</v>
       </c>
       <c r="AF9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="AG9" s="2">
-        <v>5.8857142857142799</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="AJ9">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="s">
-        <v>221</v>
+        <v>954</v>
       </c>
       <c r="AL9" t="s">
-        <v>222</v>
+        <v>955</v>
       </c>
       <c r="AM9" t="s">
-        <v>223</v>
+        <v>956</v>
       </c>
       <c r="AN9" t="s">
-        <v>224</v>
+        <v>957</v>
       </c>
       <c r="AQ9" t="s">
-        <v>225</v>
+        <v>958</v>
       </c>
       <c r="AR9" t="s">
-        <v>226</v>
+        <v>959</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>198</v>
+        <v>917</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>1152</v>
+        <v>86</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>229</v>
+        <v>960</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>230</v>
+        <v>961</v>
       </c>
       <c r="BC9" t="s">
-        <v>231</v>
+        <v>962</v>
       </c>
       <c r="BE9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF9" t="s">
-        <v>232</v>
+        <v>963</v>
       </c>
       <c r="BG9" t="s">
-        <v>233</v>
+        <v>570</v>
       </c>
       <c r="BH9" t="s">
-        <v>234</v>
+        <v>964</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BJ9">
-        <v>27957854</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>966</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>967</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>238</v>
+        <v>968</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>239</v>
+        <v>969</v>
       </c>
       <c r="N10" t="s">
         <v>66</v>
@@ -5840,123 +5802,114 @@
         <v>67</v>
       </c>
       <c r="U10" t="s">
-        <v>240</v>
+        <v>970</v>
       </c>
       <c r="V10" t="s">
-        <v>241</v>
+        <v>971</v>
       </c>
       <c r="W10" t="s">
-        <v>242</v>
+        <v>972</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>243</v>
+        <v>973</v>
       </c>
       <c r="Y10" t="s">
-        <v>244</v>
+        <v>974</v>
       </c>
       <c r="Z10" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>247</v>
+        <v>975</v>
       </c>
       <c r="AE10" t="s">
-        <v>248</v>
+        <v>976</v>
       </c>
       <c r="AF10">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AG10" s="2">
-        <v>6.3999999999999702</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AJ10">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s">
-        <v>252</v>
+        <v>977</v>
       </c>
       <c r="AO10" t="s">
-        <v>253</v>
+        <v>978</v>
       </c>
       <c r="AQ10" t="s">
-        <v>254</v>
+        <v>979</v>
       </c>
       <c r="AR10" t="s">
-        <v>255</v>
+        <v>980</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>198</v>
+        <v>917</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>1153</v>
+        <v>86</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>257</v>
+        <v>981</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>258</v>
+        <v>982</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>259</v>
+        <v>983</v>
       </c>
       <c r="BC10" t="s">
-        <v>260</v>
+        <v>984</v>
       </c>
       <c r="BE10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF10" t="s">
-        <v>261</v>
+        <v>985</v>
       </c>
       <c r="BG10" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="BH10" t="s">
-        <v>263</v>
+        <v>986</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>264</v>
+        <v>987</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>988</v>
       </c>
       <c r="G11" t="s">
-        <v>266</v>
+        <v>989</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>267</v>
+        <v>990</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>268</v>
+        <v>969</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -5964,121 +5917,121 @@
       <c r="O11" t="s">
         <v>67</v>
       </c>
+      <c r="U11" t="s">
+        <v>991</v>
+      </c>
       <c r="V11" t="s">
-        <v>269</v>
+        <v>992</v>
       </c>
       <c r="W11" t="s">
-        <v>270</v>
+        <v>993</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>271</v>
+        <v>994</v>
       </c>
       <c r="Y11" t="s">
-        <v>272</v>
+        <v>995</v>
       </c>
       <c r="Z11" t="s">
-        <v>273</v>
+        <v>996</v>
       </c>
       <c r="AC11" t="s">
-        <v>274</v>
+        <v>997</v>
       </c>
       <c r="AD11" t="s">
-        <v>275</v>
+        <v>998</v>
       </c>
       <c r="AE11" t="s">
-        <v>276</v>
+        <v>999</v>
       </c>
       <c r="AF11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="2">
-        <v>6.91428571428568</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AJ11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s">
-        <v>277</v>
+        <v>977</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>978</v>
       </c>
       <c r="AQ11" t="s">
-        <v>268</v>
+        <v>979</v>
       </c>
       <c r="AR11" t="s">
-        <v>278</v>
+        <v>980</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>279</v>
+        <v>917</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>1154</v>
+        <v>86</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>228</v>
+        <v>981</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>282</v>
+        <v>1001</v>
       </c>
       <c r="BC11" t="s">
-        <v>283</v>
+        <v>1002</v>
       </c>
       <c r="BE11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BF11" t="s">
-        <v>284</v>
+        <v>985</v>
       </c>
       <c r="BG11" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="BH11" t="s">
-        <v>286</v>
+        <v>986</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BJ11">
-        <v>27959568</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
         <v>66</v>
@@ -6086,115 +6039,127 @@
       <c r="O12" t="s">
         <v>67</v>
       </c>
+      <c r="U12" t="s">
+        <v>98</v>
+      </c>
       <c r="V12" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="W12" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="Y12" t="s">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="Z12" t="s">
-        <v>296</v>
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>105</v>
       </c>
       <c r="AC12" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="AD12" t="s">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="AE12" t="s">
-        <v>299</v>
+        <v>108</v>
       </c>
       <c r="AF12">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="AG12" s="2">
-        <v>7.4285714285713897</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AJ12">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AQ12" t="s">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="AR12" t="s">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>309</v>
+        <v>87</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="BC12" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="BE12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BF12" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="BG12" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="BH12" t="s">
-        <v>311</v>
+        <v>93</v>
       </c>
       <c r="BI12" s="2" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>114</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="N13" t="s">
         <v>66</v>
@@ -6202,115 +6167,121 @@
       <c r="O13" t="s">
         <v>67</v>
       </c>
+      <c r="U13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" t="s">
+        <v>118</v>
+      </c>
       <c r="W13" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="Z13" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>320</v>
+        <v>122</v>
       </c>
       <c r="AC13" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="AD13" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="AE13" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="AF13">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AG13" s="2">
-        <v>7.9428571428571004</v>
+        <v>1</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="AJ13">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="AK13" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="AO13" t="s">
-        <v>304</v>
+        <v>127</v>
       </c>
       <c r="AQ13" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="AR13" t="s">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>309</v>
+        <v>130</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="BC13" t="s">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF13" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="BG13" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="BH13" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>325</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s">
         <v>66</v>
@@ -6319,114 +6290,114 @@
         <v>67</v>
       </c>
       <c r="U14" t="s">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="V14" t="s">
-        <v>331</v>
+        <v>142</v>
       </c>
       <c r="W14" t="s">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>334</v>
+        <v>145</v>
       </c>
       <c r="Z14" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="AE14" t="s">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="AF14">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AG14" s="2">
-        <v>8.4571428571428093</v>
+        <v>2</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s">
-        <v>342</v>
+        <v>126</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>127</v>
       </c>
       <c r="AQ14" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
       <c r="AR14" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>347</v>
+        <v>130</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="BC14" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
       <c r="BE14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BF14" t="s">
-        <v>349</v>
+        <v>134</v>
       </c>
       <c r="BG14" t="s">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="BH14" t="s">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>352</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s">
         <v>66</v>
@@ -6434,115 +6405,112 @@
       <c r="O15" t="s">
         <v>67</v>
       </c>
-      <c r="U15" t="s">
-        <v>356</v>
-      </c>
       <c r="V15" t="s">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="W15" t="s">
-        <v>358</v>
+        <v>157</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="AC15" t="s">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="AD15" t="s">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="AE15" t="s">
-        <v>363</v>
+        <v>163</v>
       </c>
       <c r="AF15">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AG15" s="2">
-        <v>8.97142857142852</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="AL15" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="AM15" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="AN15" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="AQ15" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="AR15" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="AT15" s="3" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="BC15" t="s">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="BE15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF15" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
       <c r="BG15" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="BH15" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="BI15" s="2" t="s">
-        <v>365</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>367</v>
+        <v>178</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>368</v>
+        <v>179</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>369</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s">
         <v>66</v>
@@ -6551,126 +6519,135 @@
         <v>181</v>
       </c>
       <c r="P16" t="s">
-        <v>370</v>
+        <v>182</v>
       </c>
       <c r="Q16" t="s">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="R16" t="s">
-        <v>372</v>
-      </c>
-      <c r="S16" t="s">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="U16" t="s">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="V16" t="s">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="W16" t="s">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>380</v>
+        <v>190</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>192</v>
       </c>
       <c r="AE16" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="AF16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG16" s="2">
-        <v>9.4857142857142307</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK16" t="s">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s">
-        <v>385</v>
+        <v>194</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>195</v>
       </c>
       <c r="AQ16" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="AR16" t="s">
-        <v>387</v>
+        <v>197</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>388</v>
+        <v>199</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>390</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="s">
-        <v>391</v>
+        <v>202</v>
       </c>
       <c r="BE16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BF16" t="s">
-        <v>392</v>
+        <v>203</v>
       </c>
       <c r="BG16" t="s">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="BH16" t="s">
-        <v>394</v>
+        <v>205</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>395</v>
+        <v>206</v>
+      </c>
+      <c r="BJ16">
+        <v>27288877</v>
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>399</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s">
         <v>66</v>
@@ -6679,120 +6656,126 @@
         <v>67</v>
       </c>
       <c r="U17" t="s">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="V17" t="s">
-        <v>401</v>
+        <v>212</v>
       </c>
       <c r="W17" t="s">
-        <v>402</v>
+        <v>213</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>403</v>
+        <v>214</v>
       </c>
       <c r="Y17" t="s">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s">
-        <v>405</v>
+        <v>216</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>217</v>
       </c>
       <c r="AC17" t="s">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="AD17" t="s">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="AE17" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="AF17">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AG17" s="2">
-        <v>9.9999999999999396</v>
+        <v>2</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="AJ17">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="AK17" t="s">
-        <v>409</v>
+        <v>221</v>
       </c>
       <c r="AL17" t="s">
-        <v>410</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s">
-        <v>411</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s">
-        <v>412</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>413</v>
+        <v>224</v>
       </c>
       <c r="AQ17" t="s">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="AR17" t="s">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>416</v>
+        <v>227</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>417</v>
+        <v>229</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="BC17" t="s">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="BE17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BF17" t="s">
-        <v>420</v>
+        <v>232</v>
       </c>
       <c r="BG17" t="s">
-        <v>421</v>
+        <v>233</v>
       </c>
       <c r="BH17" t="s">
-        <v>422</v>
+        <v>234</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>423</v>
+        <v>235</v>
+      </c>
+      <c r="BJ17">
+        <v>27957854</v>
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>424</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>425</v>
+        <v>237</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>426</v>
+        <v>238</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>427</v>
+        <v>239</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
@@ -6801,373 +6784,361 @@
         <v>67</v>
       </c>
       <c r="U18" t="s">
-        <v>428</v>
+        <v>240</v>
       </c>
       <c r="V18" t="s">
-        <v>429</v>
+        <v>241</v>
       </c>
       <c r="W18" t="s">
-        <v>430</v>
+        <v>242</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>431</v>
+        <v>243</v>
       </c>
       <c r="Y18" t="s">
-        <v>432</v>
+        <v>244</v>
       </c>
       <c r="Z18" t="s">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="AC18" t="s">
-        <v>434</v>
+        <v>246</v>
       </c>
       <c r="AD18" t="s">
-        <v>435</v>
+        <v>247</v>
       </c>
       <c r="AE18" t="s">
-        <v>436</v>
+        <v>248</v>
       </c>
       <c r="AF18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG18" s="2">
-        <v>10.514285714285601</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AJ18">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="AL18" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="AM18" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="AN18" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="AO18" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="AQ18" t="s">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="AR18" t="s">
-        <v>440</v>
+        <v>255</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>441</v>
+        <v>256</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>442</v>
+        <v>258</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>443</v>
+        <v>259</v>
       </c>
       <c r="BC18" t="s">
-        <v>444</v>
+        <v>260</v>
       </c>
       <c r="BE18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF18" t="s">
-        <v>445</v>
+        <v>261</v>
       </c>
       <c r="BG18" t="s">
-        <v>446</v>
+        <v>262</v>
       </c>
       <c r="BH18" t="s">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>448</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>265</v>
       </c>
       <c r="G19" t="s">
-        <v>450</v>
+        <v>266</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>451</v>
+        <v>267</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>452</v>
+        <v>268</v>
       </c>
       <c r="N19" t="s">
         <v>66</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>454</v>
-      </c>
-      <c r="R19" t="s">
-        <v>455</v>
-      </c>
-      <c r="T19" t="s">
-        <v>456</v>
-      </c>
-      <c r="U19" t="s">
-        <v>457</v>
+        <v>67</v>
       </c>
       <c r="V19" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="W19" t="s">
-        <v>459</v>
+        <v>270</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>460</v>
+        <v>271</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>272</v>
       </c>
       <c r="Z19" t="s">
-        <v>461</v>
+        <v>273</v>
       </c>
       <c r="AC19" t="s">
-        <v>462</v>
+        <v>274</v>
       </c>
       <c r="AD19" t="s">
-        <v>463</v>
+        <v>275</v>
       </c>
       <c r="AE19" t="s">
-        <v>464</v>
+        <v>276</v>
       </c>
       <c r="AF19">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AG19" s="2">
-        <v>11.0285714285714</v>
+        <v>1</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AJ19">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="s">
-        <v>465</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s">
-        <v>466</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s">
-        <v>467</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s">
-        <v>468</v>
+        <v>277</v>
       </c>
       <c r="AQ19" t="s">
-        <v>469</v>
+        <v>268</v>
       </c>
       <c r="AR19" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>471</v>
+        <v>279</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>473</v>
+        <v>280</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="BC19" t="s">
-        <v>474</v>
+        <v>283</v>
       </c>
       <c r="BE19">
         <v>12</v>
       </c>
       <c r="BF19" t="s">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="BG19" t="s">
-        <v>475</v>
+        <v>285</v>
       </c>
       <c r="BH19" t="s">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>477</v>
+        <v>287</v>
       </c>
       <c r="BJ19">
-        <v>28155714</v>
+        <v>27959568</v>
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>478</v>
+        <v>288</v>
       </c>
       <c r="G20" t="s">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>481</v>
+        <v>291</v>
       </c>
       <c r="N20" t="s">
         <v>66</v>
       </c>
       <c r="O20" t="s">
-        <v>482</v>
+        <v>67</v>
       </c>
       <c r="V20" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="W20" t="s">
-        <v>484</v>
+        <v>293</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>485</v>
+        <v>294</v>
       </c>
       <c r="Y20" t="s">
-        <v>486</v>
+        <v>295</v>
       </c>
       <c r="Z20" t="s">
-        <v>487</v>
+        <v>296</v>
       </c>
       <c r="AC20" t="s">
-        <v>488</v>
+        <v>297</v>
       </c>
       <c r="AD20" t="s">
-        <v>489</v>
+        <v>298</v>
       </c>
       <c r="AE20" t="s">
-        <v>490</v>
+        <v>299</v>
       </c>
       <c r="AF20">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="AG20" s="2">
-        <v>11.5428571428571</v>
+        <v>2</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AJ20">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="s">
-        <v>491</v>
+        <v>300</v>
       </c>
       <c r="AL20" t="s">
-        <v>492</v>
+        <v>301</v>
       </c>
       <c r="AM20" t="s">
-        <v>493</v>
+        <v>302</v>
       </c>
       <c r="AN20" t="s">
-        <v>494</v>
+        <v>303</v>
       </c>
       <c r="AO20" t="s">
-        <v>495</v>
+        <v>304</v>
       </c>
       <c r="AQ20" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="AR20" t="s">
-        <v>496</v>
+        <v>306</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>498</v>
+        <v>308</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="BB20" s="1" t="s">
-        <v>501</v>
+        <v>309</v>
       </c>
       <c r="BC20" t="s">
-        <v>502</v>
+        <v>310</v>
       </c>
       <c r="BE20">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="BF20" t="s">
-        <v>503</v>
+        <v>173</v>
       </c>
       <c r="BG20" t="s">
-        <v>504</v>
+        <v>174</v>
       </c>
       <c r="BH20" t="s">
-        <v>505</v>
+        <v>311</v>
       </c>
       <c r="BI20" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="BJ20">
-        <v>27592595</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>507</v>
+        <v>313</v>
       </c>
       <c r="G21" t="s">
-        <v>508</v>
+        <v>314</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>509</v>
+        <v>315</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="N21" t="s">
         <v>66</v>
@@ -7175,127 +7146,115 @@
       <c r="O21" t="s">
         <v>67</v>
       </c>
-      <c r="U21" t="s">
-        <v>510</v>
-      </c>
-      <c r="V21" t="s">
-        <v>511</v>
-      </c>
       <c r="W21" t="s">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="Y21" t="s">
-        <v>514</v>
+        <v>318</v>
       </c>
       <c r="Z21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>515</v>
+        <v>319</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>320</v>
       </c>
       <c r="AC21" t="s">
-        <v>516</v>
+        <v>321</v>
       </c>
       <c r="AD21" t="s">
-        <v>517</v>
+        <v>322</v>
       </c>
       <c r="AE21" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="AF21">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AG21" s="2">
-        <v>12.0571428571428</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="AL21" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="AM21" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="AN21" t="s">
-        <v>224</v>
+        <v>303</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>304</v>
       </c>
       <c r="AQ21" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="AR21" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="BB21" s="1" t="s">
-        <v>521</v>
+        <v>309</v>
       </c>
       <c r="BC21" t="s">
-        <v>522</v>
+        <v>324</v>
       </c>
       <c r="BE21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BF21" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="BG21" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="BH21" t="s">
-        <v>523</v>
+        <v>311</v>
       </c>
       <c r="BI21" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="BJ21">
-        <v>27998152</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>525</v>
+        <v>326</v>
       </c>
       <c r="G22" t="s">
-        <v>526</v>
+        <v>327</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>527</v>
+        <v>328</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="N22" t="s">
         <v>66</v>
@@ -7303,112 +7262,115 @@
       <c r="O22" t="s">
         <v>67</v>
       </c>
+      <c r="U22" t="s">
+        <v>330</v>
+      </c>
       <c r="V22" t="s">
-        <v>529</v>
+        <v>331</v>
       </c>
       <c r="W22" t="s">
-        <v>530</v>
+        <v>332</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>531</v>
+        <v>333</v>
       </c>
       <c r="Y22" t="s">
-        <v>532</v>
+        <v>334</v>
       </c>
       <c r="Z22" t="s">
-        <v>533</v>
+        <v>335</v>
       </c>
       <c r="AC22" t="s">
-        <v>534</v>
+        <v>336</v>
       </c>
       <c r="AD22" t="s">
-        <v>535</v>
+        <v>337</v>
       </c>
       <c r="AE22" t="s">
-        <v>536</v>
+        <v>338</v>
       </c>
       <c r="AF22">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="AG22" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="s">
-        <v>537</v>
+        <v>339</v>
       </c>
       <c r="AL22" t="s">
-        <v>466</v>
+        <v>340</v>
       </c>
       <c r="AM22" t="s">
-        <v>538</v>
+        <v>341</v>
       </c>
       <c r="AN22" t="s">
-        <v>539</v>
+        <v>342</v>
       </c>
       <c r="AQ22" t="s">
-        <v>540</v>
+        <v>343</v>
       </c>
       <c r="AR22" t="s">
-        <v>541</v>
+        <v>344</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>497</v>
+        <v>345</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>171</v>
+        <v>346</v>
+      </c>
+      <c r="AV22" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="BC22" t="s">
-        <v>542</v>
+        <v>348</v>
       </c>
       <c r="BE22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BF22" t="s">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="BG22" t="s">
-        <v>544</v>
+        <v>350</v>
       </c>
       <c r="BH22" t="s">
-        <v>545</v>
+        <v>351</v>
       </c>
       <c r="BI22" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="BJ22">
-        <v>28000796</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>547</v>
+        <v>736</v>
       </c>
       <c r="G23" t="s">
-        <v>548</v>
+        <v>737</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>549</v>
+        <v>738</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>550</v>
+        <v>716</v>
       </c>
       <c r="N23" t="s">
         <v>66</v>
@@ -7417,123 +7379,117 @@
         <v>67</v>
       </c>
       <c r="V23" t="s">
-        <v>551</v>
+        <v>739</v>
       </c>
       <c r="W23" t="s">
-        <v>552</v>
+        <v>740</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>553</v>
+        <v>741</v>
       </c>
       <c r="Y23" t="s">
-        <v>554</v>
+        <v>742</v>
       </c>
       <c r="Z23" t="s">
-        <v>555</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>557</v>
+        <v>743</v>
       </c>
       <c r="AE23" t="s">
-        <v>558</v>
+        <v>744</v>
       </c>
       <c r="AF23">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="AG23" s="2">
-        <v>3.3142857142857101</v>
+        <v>1</v>
       </c>
       <c r="AH23">
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="s">
-        <v>559</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s">
-        <v>560</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s">
-        <v>561</v>
+        <v>223</v>
       </c>
       <c r="AN23" t="s">
-        <v>562</v>
+        <v>725</v>
       </c>
       <c r="AO23" t="s">
-        <v>563</v>
+        <v>726</v>
       </c>
       <c r="AQ23" t="s">
-        <v>564</v>
+        <v>727</v>
       </c>
       <c r="AR23" t="s">
-        <v>565</v>
+        <v>728</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>497</v>
+        <v>648</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>499</v>
+        <v>347</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>567</v>
+        <v>745</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>568</v>
+        <v>746</v>
       </c>
       <c r="BC23" t="s">
-        <v>569</v>
+        <v>747</v>
       </c>
       <c r="BE23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF23" t="s">
-        <v>570</v>
+        <v>732</v>
       </c>
       <c r="BG23" t="s">
-        <v>571</v>
+        <v>733</v>
       </c>
       <c r="BH23" t="s">
-        <v>572</v>
+        <v>734</v>
       </c>
       <c r="BI23" s="2" t="s">
-        <v>573</v>
+        <v>748</v>
       </c>
       <c r="BJ23">
-        <v>27858011</v>
+        <v>27993038</v>
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>574</v>
+        <v>1004</v>
       </c>
       <c r="G24" t="s">
-        <v>575</v>
+        <v>1005</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>576</v>
+        <v>1006</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>239</v>
+        <v>969</v>
       </c>
       <c r="N24" t="s">
         <v>66</v>
@@ -7542,126 +7498,120 @@
         <v>67</v>
       </c>
       <c r="U24" t="s">
-        <v>577</v>
+        <v>1007</v>
       </c>
       <c r="V24" t="s">
-        <v>578</v>
+        <v>1008</v>
       </c>
       <c r="W24" t="s">
-        <v>579</v>
+        <v>1009</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>580</v>
+        <v>1010</v>
       </c>
       <c r="Y24" t="s">
-        <v>581</v>
+        <v>1011</v>
       </c>
       <c r="Z24" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>583</v>
+        <v>1012</v>
       </c>
       <c r="AC24" t="s">
-        <v>584</v>
+        <v>1013</v>
       </c>
       <c r="AD24" t="s">
-        <v>585</v>
+        <v>1014</v>
       </c>
       <c r="AE24" t="s">
-        <v>586</v>
+        <v>1015</v>
       </c>
       <c r="AF24">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="AG24" s="2">
-        <v>3.8285714285714199</v>
+        <v>2</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="AJ24">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s">
-        <v>252</v>
+        <v>977</v>
       </c>
       <c r="AO24" t="s">
-        <v>253</v>
+        <v>978</v>
       </c>
       <c r="AQ24" t="s">
-        <v>254</v>
+        <v>979</v>
       </c>
       <c r="AR24" t="s">
-        <v>255</v>
+        <v>980</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>497</v>
+        <v>917</v>
       </c>
       <c r="AT24" s="3" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV24" s="1" t="s">
-        <v>499</v>
+        <v>981</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>587</v>
+        <v>1016</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>588</v>
+        <v>1017</v>
       </c>
       <c r="BC24" t="s">
-        <v>589</v>
+        <v>1018</v>
       </c>
       <c r="BE24">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BF24" t="s">
-        <v>261</v>
+        <v>985</v>
       </c>
       <c r="BG24" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="BH24" t="s">
-        <v>590</v>
+        <v>986</v>
       </c>
       <c r="BI24" s="2" t="s">
-        <v>591</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>592</v>
+        <v>353</v>
       </c>
       <c r="G25" t="s">
-        <v>593</v>
+        <v>354</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>594</v>
+        <v>355</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="N25" t="s">
         <v>66</v>
@@ -7670,123 +7620,114 @@
         <v>67</v>
       </c>
       <c r="U25" t="s">
-        <v>595</v>
+        <v>356</v>
       </c>
       <c r="V25" t="s">
-        <v>596</v>
+        <v>357</v>
       </c>
       <c r="W25" t="s">
-        <v>597</v>
+        <v>358</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>598</v>
+        <v>359</v>
       </c>
       <c r="Y25" t="s">
-        <v>599</v>
+        <v>360</v>
       </c>
       <c r="Z25" t="s">
-        <v>600</v>
+        <v>335</v>
       </c>
       <c r="AC25" t="s">
-        <v>601</v>
+        <v>361</v>
       </c>
       <c r="AD25" t="s">
-        <v>602</v>
+        <v>362</v>
       </c>
       <c r="AE25" t="s">
-        <v>603</v>
+        <v>363</v>
       </c>
       <c r="AF25">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AG25" s="2">
-        <v>4.3428571428571399</v>
+        <v>0</v>
       </c>
       <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
         <v>1</v>
       </c>
-      <c r="AI25">
-        <v>40</v>
-      </c>
       <c r="AJ25">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="AL25" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="AM25" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="AN25" t="s">
-        <v>252</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="AQ25" t="s">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="AR25" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>497</v>
+        <v>345</v>
       </c>
       <c r="AT25" s="3" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="AV25" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="BA25" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="BB25" s="1" t="s">
-        <v>605</v>
+        <v>347</v>
       </c>
       <c r="BC25" t="s">
-        <v>606</v>
+        <v>364</v>
       </c>
       <c r="BE25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF25" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="BG25" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="BH25" t="s">
-        <v>590</v>
+        <v>351</v>
       </c>
       <c r="BI25" s="2" t="s">
-        <v>607</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>608</v>
+        <v>749</v>
       </c>
       <c r="G26" t="s">
-        <v>609</v>
+        <v>750</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>610</v>
+        <v>751</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="N26" t="s">
         <v>66</v>
@@ -7794,121 +7735,127 @@
       <c r="O26" t="s">
         <v>67</v>
       </c>
-      <c r="U26" t="s">
-        <v>612</v>
-      </c>
       <c r="V26" t="s">
-        <v>613</v>
+        <v>753</v>
       </c>
       <c r="W26" t="s">
-        <v>614</v>
+        <v>754</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>615</v>
+        <v>755</v>
       </c>
       <c r="Y26" t="s">
-        <v>616</v>
+        <v>756</v>
       </c>
       <c r="Z26" t="s">
-        <v>617</v>
+        <v>757</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>759</v>
       </c>
       <c r="AC26" t="s">
-        <v>618</v>
+        <v>760</v>
       </c>
       <c r="AD26" t="s">
-        <v>619</v>
+        <v>761</v>
       </c>
       <c r="AE26" t="s">
-        <v>620</v>
+        <v>762</v>
       </c>
       <c r="AF26">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AG26" s="2">
-        <v>4.8571428571428497</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AJ26">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s">
-        <v>621</v>
+        <v>491</v>
       </c>
       <c r="AL26" t="s">
-        <v>622</v>
+        <v>492</v>
       </c>
       <c r="AM26" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
       <c r="AN26" t="s">
-        <v>624</v>
+        <v>763</v>
       </c>
       <c r="AO26" t="s">
-        <v>625</v>
+        <v>764</v>
       </c>
       <c r="AQ26" t="s">
-        <v>626</v>
+        <v>765</v>
       </c>
       <c r="AR26" t="s">
-        <v>627</v>
+        <v>766</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>497</v>
+        <v>648</v>
       </c>
       <c r="AT26" s="3" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>628</v>
+        <v>309</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>519</v>
+        <v>499</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="BC26" t="s">
-        <v>629</v>
+        <v>769</v>
       </c>
       <c r="BE26">
         <v>9</v>
       </c>
       <c r="BF26" t="s">
-        <v>630</v>
+        <v>503</v>
       </c>
       <c r="BG26" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="BH26" t="s">
-        <v>631</v>
+        <v>770</v>
       </c>
       <c r="BI26" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="BJ26">
-        <v>27783569</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>633</v>
+        <v>1020</v>
       </c>
       <c r="G27" t="s">
-        <v>634</v>
+        <v>1021</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>635</v>
+        <v>1022</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>636</v>
+        <v>969</v>
       </c>
       <c r="N27" t="s">
         <v>66</v>
@@ -7917,230 +7864,245 @@
         <v>67</v>
       </c>
       <c r="U27" t="s">
-        <v>637</v>
-      </c>
-      <c r="V27" t="s">
-        <v>638</v>
+        <v>1023</v>
       </c>
       <c r="W27" t="s">
-        <v>639</v>
+        <v>1024</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>640</v>
+        <v>1025</v>
       </c>
       <c r="Y27" t="s">
-        <v>641</v>
+        <v>1026</v>
       </c>
       <c r="Z27" t="s">
-        <v>642</v>
+        <v>1027</v>
       </c>
       <c r="AC27" t="s">
-        <v>643</v>
+        <v>1028</v>
       </c>
       <c r="AD27" t="s">
-        <v>644</v>
+        <v>1029</v>
       </c>
       <c r="AE27" t="s">
-        <v>645</v>
+        <v>1030</v>
       </c>
       <c r="AF27">
-        <v>36</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>5.3714285714285701</v>
+        <v>13</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>9.9999999959999997</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s">
-        <v>646</v>
+        <v>977</v>
       </c>
       <c r="AO27" t="s">
-        <v>647</v>
+        <v>978</v>
       </c>
       <c r="AQ27" t="s">
-        <v>648</v>
+        <v>979</v>
       </c>
       <c r="AR27" t="s">
-        <v>649</v>
+        <v>980</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>650</v>
+        <v>917</v>
       </c>
       <c r="AT27" s="3" t="s">
-        <v>1169</v>
+        <v>1147</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>651</v>
+        <v>981</v>
       </c>
       <c r="BA27" s="1" t="s">
-        <v>652</v>
+        <v>1031</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>653</v>
+        <v>1032</v>
       </c>
       <c r="BC27" t="s">
-        <v>654</v>
+        <v>1033</v>
       </c>
       <c r="BE27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BF27" t="s">
-        <v>655</v>
+        <v>985</v>
       </c>
       <c r="BG27" t="s">
-        <v>655</v>
+        <v>393</v>
       </c>
       <c r="BH27" t="s">
-        <v>656</v>
+        <v>986</v>
       </c>
       <c r="BI27" s="2" t="s">
-        <v>657</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>658</v>
+        <v>366</v>
       </c>
       <c r="G28" t="s">
-        <v>659</v>
+        <v>367</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>660</v>
+        <v>368</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>661</v>
+        <v>369</v>
       </c>
       <c r="N28" t="s">
         <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>181</v>
+      </c>
+      <c r="P28" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>371</v>
+      </c>
+      <c r="R28" t="s">
+        <v>372</v>
+      </c>
+      <c r="S28" t="s">
+        <v>373</v>
+      </c>
+      <c r="U28" t="s">
+        <v>374</v>
       </c>
       <c r="V28" t="s">
-        <v>662</v>
+        <v>375</v>
       </c>
       <c r="W28" t="s">
-        <v>663</v>
+        <v>376</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>664</v>
+        <v>377</v>
       </c>
       <c r="Y28" t="s">
-        <v>665</v>
+        <v>378</v>
       </c>
       <c r="Z28" t="s">
-        <v>666</v>
+        <v>379</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>380</v>
       </c>
       <c r="AE28" t="s">
-        <v>667</v>
+        <v>381</v>
       </c>
       <c r="AF28">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG28" s="2">
-        <v>5.8857142857142799</v>
+        <v>3</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="s">
-        <v>668</v>
+        <v>382</v>
       </c>
       <c r="AL28" t="s">
-        <v>669</v>
+        <v>383</v>
       </c>
       <c r="AM28" t="s">
-        <v>670</v>
+        <v>384</v>
       </c>
       <c r="AN28" t="s">
-        <v>671</v>
+        <v>385</v>
       </c>
       <c r="AQ28" t="s">
-        <v>661</v>
+        <v>386</v>
       </c>
       <c r="AR28" t="s">
-        <v>672</v>
+        <v>387</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>650</v>
+        <v>345</v>
       </c>
       <c r="AT28" s="3" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AV28" s="1" t="s">
-        <v>498</v>
+        <v>388</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="BC28" t="s">
-        <v>674</v>
+        <v>391</v>
       </c>
       <c r="BE28">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BF28" t="s">
-        <v>543</v>
+        <v>392</v>
       </c>
       <c r="BG28" t="s">
-        <v>544</v>
+        <v>393</v>
       </c>
       <c r="BH28" t="s">
-        <v>675</v>
+        <v>394</v>
       </c>
       <c r="BI28" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="BJ28">
-        <v>27997578</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="G29" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>636</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>
@@ -8148,118 +8110,118 @@
       <c r="O29" t="s">
         <v>67</v>
       </c>
-      <c r="U29" t="s">
-        <v>680</v>
-      </c>
       <c r="V29" t="s">
-        <v>681</v>
+        <v>775</v>
       </c>
       <c r="W29" t="s">
-        <v>682</v>
+        <v>776</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>683</v>
+        <v>777</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>778</v>
       </c>
       <c r="Z29" t="s">
-        <v>684</v>
+        <v>779</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>320</v>
       </c>
       <c r="AC29" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="AD29" t="s">
-        <v>686</v>
+        <v>781</v>
       </c>
       <c r="AE29" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="AF29">
-        <v>45</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>6.4</v>
+        <v>34</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>3</v>
       </c>
       <c r="AH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AJ29">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s">
-        <v>646</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s">
-        <v>647</v>
+        <v>304</v>
       </c>
       <c r="AQ29" t="s">
-        <v>648</v>
+        <v>305</v>
       </c>
       <c r="AR29" t="s">
-        <v>649</v>
+        <v>306</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>650</v>
+        <v>783</v>
       </c>
       <c r="AT29" s="3" t="s">
-        <v>86</v>
+        <v>1147</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="BA29" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="BB29" s="1" t="s">
-        <v>689</v>
+        <v>308</v>
+      </c>
+      <c r="AV29" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="BC29" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="BE29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF29" t="s">
-        <v>655</v>
+        <v>173</v>
       </c>
       <c r="BG29" t="s">
-        <v>655</v>
+        <v>174</v>
       </c>
       <c r="BH29" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="BI29" s="2" t="s">
-        <v>692</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>693</v>
+        <v>1035</v>
       </c>
       <c r="G30" t="s">
-        <v>694</v>
+        <v>1036</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>695</v>
+        <v>1037</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>696</v>
+        <v>369</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
@@ -8268,117 +8230,117 @@
         <v>67</v>
       </c>
       <c r="U30" t="s">
-        <v>697</v>
+        <v>1038</v>
       </c>
       <c r="V30" t="s">
-        <v>698</v>
+        <v>1039</v>
       </c>
       <c r="W30" t="s">
-        <v>699</v>
+        <v>1040</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>700</v>
+        <v>1041</v>
       </c>
       <c r="Y30" t="s">
-        <v>701</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>702</v>
+        <v>1042</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1044</v>
       </c>
       <c r="AE30" t="s">
-        <v>703</v>
+        <v>1045</v>
       </c>
       <c r="AF30">
-        <v>64</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>6.9142857142857101</v>
+        <v>24</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>3</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK30" t="s">
-        <v>704</v>
+        <v>382</v>
       </c>
       <c r="AL30" t="s">
-        <v>705</v>
+        <v>383</v>
       </c>
       <c r="AM30" t="s">
-        <v>706</v>
+        <v>384</v>
       </c>
       <c r="AN30" t="s">
-        <v>707</v>
+        <v>385</v>
       </c>
       <c r="AQ30" t="s">
-        <v>696</v>
+        <v>386</v>
       </c>
       <c r="AR30" t="s">
-        <v>708</v>
+        <v>387</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>650</v>
+        <v>917</v>
       </c>
       <c r="AT30" s="3" t="s">
-        <v>86</v>
+        <v>1147</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AV30" s="1" t="s">
-        <v>228</v>
+        <v>1046</v>
+      </c>
+      <c r="AW30" s="1" t="s">
+        <v>1047</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>710</v>
+        <v>1048</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>711</v>
+        <v>1049</v>
       </c>
       <c r="BC30" t="s">
-        <v>712</v>
+        <v>1050</v>
       </c>
       <c r="BE30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BF30" t="s">
-        <v>713</v>
+        <v>392</v>
       </c>
       <c r="BG30" t="s">
-        <v>713</v>
+        <v>393</v>
       </c>
       <c r="BH30" t="s">
-        <v>714</v>
+        <v>1051</v>
       </c>
       <c r="BI30" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="BJ30">
-        <v>27784000</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>716</v>
+        <v>396</v>
       </c>
       <c r="G31" t="s">
-        <v>717</v>
+        <v>397</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>718</v>
+        <v>398</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>719</v>
+        <v>399</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
@@ -8386,124 +8348,121 @@
       <c r="O31" t="s">
         <v>67</v>
       </c>
+      <c r="U31" t="s">
+        <v>400</v>
+      </c>
       <c r="V31" t="s">
-        <v>720</v>
+        <v>401</v>
       </c>
       <c r="W31" t="s">
-        <v>721</v>
+        <v>402</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>722</v>
+        <v>403</v>
       </c>
       <c r="Y31" t="s">
-        <v>723</v>
+        <v>404</v>
       </c>
       <c r="Z31" t="s">
-        <v>724</v>
+        <v>405</v>
       </c>
       <c r="AC31" t="s">
-        <v>725</v>
+        <v>406</v>
       </c>
       <c r="AD31" t="s">
-        <v>726</v>
+        <v>407</v>
       </c>
       <c r="AE31" t="s">
-        <v>727</v>
+        <v>408</v>
       </c>
       <c r="AF31">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG31" s="2">
-        <v>7.4285714285714199</v>
+        <v>32</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="AJ31">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="AL31" t="s">
-        <v>222</v>
+        <v>410</v>
       </c>
       <c r="AM31" t="s">
-        <v>223</v>
+        <v>411</v>
       </c>
       <c r="AN31" t="s">
-        <v>728</v>
+        <v>412</v>
       </c>
       <c r="AO31" t="s">
-        <v>729</v>
+        <v>413</v>
       </c>
       <c r="AQ31" t="s">
-        <v>730</v>
+        <v>414</v>
       </c>
       <c r="AR31" t="s">
-        <v>731</v>
+        <v>415</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>650</v>
+        <v>345</v>
       </c>
       <c r="AT31" s="3" t="s">
-        <v>86</v>
+        <v>1147</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>732</v>
+        <v>417</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>733</v>
+        <v>418</v>
       </c>
       <c r="BC31" t="s">
-        <v>734</v>
+        <v>419</v>
       </c>
       <c r="BE31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF31" t="s">
-        <v>735</v>
+        <v>420</v>
       </c>
       <c r="BG31" t="s">
-        <v>736</v>
+        <v>421</v>
       </c>
       <c r="BH31" t="s">
-        <v>737</v>
+        <v>422</v>
       </c>
       <c r="BI31" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="BJ31">
-        <v>27993077</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>739</v>
+        <v>788</v>
       </c>
       <c r="G32" t="s">
-        <v>740</v>
+        <v>789</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>741</v>
+        <v>790</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>719</v>
+        <v>791</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
@@ -8511,118 +8470,130 @@
       <c r="O32" t="s">
         <v>67</v>
       </c>
+      <c r="U32" t="s">
+        <v>792</v>
+      </c>
       <c r="V32" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="W32" t="s">
-        <v>743</v>
+        <v>794</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>744</v>
+        <v>795</v>
       </c>
       <c r="Y32" t="s">
-        <v>745</v>
+        <v>796</v>
       </c>
       <c r="Z32" t="s">
-        <v>746</v>
+        <v>797</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>800</v>
       </c>
       <c r="AE32" t="s">
-        <v>747</v>
+        <v>801</v>
       </c>
       <c r="AF32">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG32" s="4">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AJ32">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AK32" t="s">
-        <v>221</v>
+        <v>491</v>
       </c>
       <c r="AL32" t="s">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="AM32" t="s">
-        <v>223</v>
+        <v>493</v>
       </c>
       <c r="AN32" t="s">
-        <v>728</v>
+        <v>802</v>
       </c>
       <c r="AO32" t="s">
-        <v>729</v>
+        <v>803</v>
       </c>
       <c r="AQ32" t="s">
-        <v>730</v>
+        <v>804</v>
       </c>
       <c r="AR32" t="s">
-        <v>731</v>
+        <v>805</v>
       </c>
       <c r="AS32" s="1" t="s">
-        <v>650</v>
+        <v>783</v>
       </c>
       <c r="AT32" s="3" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>519</v>
+        <v>806</v>
       </c>
       <c r="AV32" s="1" t="s">
-        <v>347</v>
+        <v>228</v>
       </c>
       <c r="BA32" s="1" t="s">
-        <v>748</v>
+        <v>807</v>
       </c>
       <c r="BB32" s="1" t="s">
-        <v>749</v>
+        <v>808</v>
       </c>
       <c r="BC32" t="s">
-        <v>750</v>
+        <v>809</v>
       </c>
       <c r="BE32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BF32" t="s">
-        <v>735</v>
+        <v>810</v>
       </c>
       <c r="BG32" t="s">
-        <v>736</v>
+        <v>570</v>
       </c>
       <c r="BH32" t="s">
-        <v>737</v>
+        <v>811</v>
       </c>
       <c r="BI32" s="2" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="BJ32">
-        <v>27993038</v>
+        <v>27709716</v>
       </c>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>752</v>
+        <v>1053</v>
       </c>
       <c r="G33" t="s">
-        <v>753</v>
+        <v>1054</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>754</v>
+        <v>1055</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>755</v>
+        <v>369</v>
       </c>
       <c r="N33" t="s">
         <v>66</v>
@@ -8630,127 +8601,121 @@
       <c r="O33" t="s">
         <v>67</v>
       </c>
+      <c r="U33" t="s">
+        <v>1056</v>
+      </c>
       <c r="V33" t="s">
-        <v>756</v>
+        <v>1057</v>
       </c>
       <c r="W33" t="s">
-        <v>757</v>
+        <v>1058</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>758</v>
+        <v>1059</v>
       </c>
       <c r="Y33" t="s">
-        <v>759</v>
+        <v>1060</v>
       </c>
       <c r="Z33" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>762</v>
+        <v>1061</v>
       </c>
       <c r="AC33" t="s">
-        <v>763</v>
+        <v>1062</v>
       </c>
       <c r="AD33" t="s">
-        <v>764</v>
+        <v>1063</v>
       </c>
       <c r="AE33" t="s">
-        <v>765</v>
+        <v>1064</v>
       </c>
       <c r="AF33">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AG33" s="4">
-        <v>3.3142857139999999</v>
+        <v>6</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AJ33">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AK33" t="s">
-        <v>491</v>
+        <v>382</v>
       </c>
       <c r="AL33" t="s">
-        <v>492</v>
+        <v>383</v>
       </c>
       <c r="AM33" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="AN33" t="s">
-        <v>766</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>767</v>
+        <v>385</v>
       </c>
       <c r="AQ33" t="s">
-        <v>768</v>
+        <v>386</v>
       </c>
       <c r="AR33" t="s">
-        <v>769</v>
+        <v>387</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>650</v>
+        <v>917</v>
       </c>
       <c r="AT33" s="3" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV33" s="1" t="s">
-        <v>499</v>
+        <v>1046</v>
+      </c>
+      <c r="AW33" s="1" t="s">
+        <v>1047</v>
       </c>
       <c r="BA33" s="1" t="s">
-        <v>770</v>
+        <v>1065</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>771</v>
+        <v>1066</v>
       </c>
       <c r="BC33" t="s">
-        <v>772</v>
+        <v>1067</v>
       </c>
       <c r="BE33">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BF33" t="s">
-        <v>503</v>
+        <v>392</v>
       </c>
       <c r="BG33" t="s">
-        <v>504</v>
+        <v>393</v>
       </c>
       <c r="BH33" t="s">
-        <v>773</v>
+        <v>1051</v>
       </c>
       <c r="BI33" s="2" t="s">
-        <v>774</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>775</v>
+        <v>424</v>
       </c>
       <c r="G34" t="s">
-        <v>776</v>
+        <v>425</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>777</v>
+        <v>426</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>291</v>
+        <v>427</v>
       </c>
       <c r="N34" t="s">
         <v>66</v>
@@ -8758,118 +8723,121 @@
       <c r="O34" t="s">
         <v>67</v>
       </c>
+      <c r="U34" t="s">
+        <v>428</v>
+      </c>
       <c r="V34" t="s">
-        <v>778</v>
+        <v>429</v>
       </c>
       <c r="W34" t="s">
-        <v>779</v>
+        <v>430</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>780</v>
+        <v>431</v>
       </c>
       <c r="Y34" t="s">
-        <v>781</v>
+        <v>432</v>
       </c>
       <c r="Z34" t="s">
-        <v>782</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>320</v>
+        <v>433</v>
       </c>
       <c r="AC34" t="s">
-        <v>783</v>
+        <v>434</v>
       </c>
       <c r="AD34" t="s">
-        <v>784</v>
+        <v>435</v>
       </c>
       <c r="AE34" t="s">
-        <v>785</v>
+        <v>436</v>
       </c>
       <c r="AF34">
-        <v>34</v>
-      </c>
-      <c r="AG34" s="4">
-        <v>3.8285714290000001</v>
+        <v>18</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>4</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AJ34">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="AL34" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="AM34" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="AN34" t="s">
-        <v>303</v>
+        <v>437</v>
       </c>
       <c r="AO34" t="s">
-        <v>304</v>
+        <v>438</v>
       </c>
       <c r="AQ34" t="s">
-        <v>305</v>
+        <v>439</v>
       </c>
       <c r="AR34" t="s">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>786</v>
+        <v>345</v>
       </c>
       <c r="AT34" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV34" s="1" t="s">
-        <v>787</v>
+        <v>441</v>
+      </c>
+      <c r="BA34" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB34" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="BC34" t="s">
-        <v>788</v>
+        <v>444</v>
       </c>
       <c r="BE34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF34" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="BG34" t="s">
-        <v>174</v>
+        <v>446</v>
       </c>
       <c r="BH34" t="s">
-        <v>789</v>
+        <v>447</v>
       </c>
       <c r="BI34" s="2" t="s">
-        <v>790</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="G35" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="N35" t="s">
         <v>66</v>
@@ -8878,231 +8846,228 @@
         <v>67</v>
       </c>
       <c r="U35" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="V35" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="W35" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="Y35" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="Z35" t="s">
-        <v>800</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="AC35" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="AD35" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="AE35" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="AF35">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AG35" s="4">
-        <v>4.3428571429999998</v>
+        <v>5</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="AJ35">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="AK35" t="s">
-        <v>491</v>
+        <v>826</v>
       </c>
       <c r="AL35" t="s">
-        <v>492</v>
+        <v>250</v>
       </c>
       <c r="AM35" t="s">
-        <v>493</v>
+        <v>827</v>
       </c>
       <c r="AN35" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="AO35" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="AQ35" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="AR35" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AT35" s="3" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="AV35" s="1" t="s">
-        <v>228</v>
+        <v>831</v>
       </c>
       <c r="BA35" s="1" t="s">
-        <v>810</v>
+        <v>418</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="BC35" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="BE35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF35" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="BG35" t="s">
-        <v>571</v>
+        <v>834</v>
       </c>
       <c r="BH35" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="BI35" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="BJ35">
-        <v>27709716</v>
+        <v>836</v>
       </c>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>816</v>
+        <v>449</v>
       </c>
       <c r="G36" t="s">
-        <v>817</v>
+        <v>450</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>818</v>
+        <v>451</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>819</v>
+        <v>452</v>
       </c>
       <c r="N36" t="s">
         <v>66</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>181</v>
+      </c>
+      <c r="P36" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>454</v>
+      </c>
+      <c r="R36" t="s">
+        <v>455</v>
+      </c>
+      <c r="T36" t="s">
+        <v>456</v>
       </c>
       <c r="U36" t="s">
-        <v>820</v>
+        <v>457</v>
       </c>
       <c r="V36" t="s">
-        <v>821</v>
+        <v>458</v>
       </c>
       <c r="W36" t="s">
-        <v>822</v>
+        <v>459</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>824</v>
+        <v>460</v>
       </c>
       <c r="Z36" t="s">
-        <v>825</v>
+        <v>461</v>
       </c>
       <c r="AC36" t="s">
-        <v>826</v>
+        <v>462</v>
       </c>
       <c r="AD36" t="s">
-        <v>827</v>
+        <v>463</v>
       </c>
       <c r="AE36" t="s">
-        <v>828</v>
+        <v>464</v>
       </c>
       <c r="AF36">
-        <v>35</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>4.8571428570000004</v>
+        <v>50</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>3</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AJ36">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AK36" t="s">
-        <v>829</v>
+        <v>465</v>
       </c>
       <c r="AL36" t="s">
-        <v>250</v>
+        <v>466</v>
       </c>
       <c r="AM36" t="s">
-        <v>830</v>
+        <v>467</v>
       </c>
       <c r="AN36" t="s">
-        <v>831</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>832</v>
+        <v>468</v>
       </c>
       <c r="AQ36" t="s">
-        <v>819</v>
+        <v>469</v>
       </c>
       <c r="AR36" t="s">
-        <v>833</v>
+        <v>470</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>786</v>
+        <v>471</v>
       </c>
       <c r="AT36" s="3" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="BA36" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="BB36" s="1" t="s">
-        <v>835</v>
+        <v>472</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="BC36" t="s">
-        <v>836</v>
+        <v>474</v>
       </c>
       <c r="BE36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BF36" t="s">
-        <v>837</v>
+        <v>475</v>
       </c>
       <c r="BG36" t="s">
-        <v>837</v>
+        <v>475</v>
       </c>
       <c r="BH36" t="s">
-        <v>838</v>
+        <v>476</v>
       </c>
       <c r="BI36" s="2" t="s">
-        <v>839</v>
+        <v>477</v>
+      </c>
+      <c r="BJ36">
+        <v>28155714</v>
       </c>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
@@ -9113,16 +9078,16 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
+        <v>837</v>
+      </c>
+      <c r="G37" t="s">
+        <v>838</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="G37" t="s">
-        <v>841</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="N37" t="s">
         <v>66</v>
@@ -9131,37 +9096,37 @@
         <v>67</v>
       </c>
       <c r="U37" t="s">
+        <v>841</v>
+      </c>
+      <c r="V37" t="s">
+        <v>842</v>
+      </c>
+      <c r="W37" t="s">
+        <v>843</v>
+      </c>
+      <c r="X37" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="V37" t="s">
+      <c r="Y37" t="s">
         <v>845</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Z37" t="s">
         <v>846</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="AC37" t="s">
         <v>847</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AD37" t="s">
         <v>848</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AE37" t="s">
         <v>849</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>850</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>851</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>852</v>
       </c>
       <c r="AF37">
         <v>26</v>
       </c>
       <c r="AG37" s="4">
-        <v>5.371428571</v>
+        <v>3</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -9182,69 +9147,69 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s">
+        <v>850</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>851</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>840</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>852</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AT37" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU37" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="BA37" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="AQ37" t="s">
-        <v>843</v>
-      </c>
-      <c r="AR37" t="s">
+      <c r="BB37" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="AS37" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AT37" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AU37" s="1" t="s">
+      <c r="BC37" t="s">
         <v>856</v>
-      </c>
-      <c r="BA37" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="BB37" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>859</v>
       </c>
       <c r="BE37">
         <v>10</v>
       </c>
       <c r="BF37" t="s">
+        <v>857</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>858</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>859</v>
+      </c>
+      <c r="BI37" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>861</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>862</v>
-      </c>
-      <c r="BI37" s="2" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>864</v>
+        <v>1093</v>
       </c>
       <c r="G38" t="s">
-        <v>865</v>
+        <v>1094</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>866</v>
+        <v>1095</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>867</v>
+        <v>1096</v>
       </c>
       <c r="N38" t="s">
         <v>66</v>
@@ -9252,237 +9217,246 @@
       <c r="O38" t="s">
         <v>67</v>
       </c>
+      <c r="U38" t="s">
+        <v>1097</v>
+      </c>
       <c r="V38" t="s">
-        <v>868</v>
+        <v>1098</v>
       </c>
       <c r="W38" t="s">
-        <v>869</v>
+        <v>1099</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>870</v>
+        <v>1100</v>
       </c>
       <c r="Y38" t="s">
-        <v>871</v>
+        <v>1101</v>
       </c>
       <c r="Z38" t="s">
-        <v>872</v>
+        <v>1102</v>
       </c>
       <c r="AC38" t="s">
-        <v>873</v>
+        <v>1103</v>
       </c>
       <c r="AD38" t="s">
-        <v>874</v>
+        <v>1104</v>
       </c>
       <c r="AE38" t="s">
-        <v>875</v>
+        <v>1105</v>
       </c>
       <c r="AF38">
-        <v>49</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>5.8857142859999998</v>
+        <v>100</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>4</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38">
+        <v>17</v>
+      </c>
+      <c r="AJ38">
+        <v>17</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>826</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>827</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AT38" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BA38" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BB38" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BE38">
         <v>11</v>
       </c>
-      <c r="AJ38">
-        <v>11</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>876</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>877</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>878</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>879</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="AT38" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AU38" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="AV38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="BA38" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="BB38" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="BC38" t="s">
-        <v>884</v>
-      </c>
-      <c r="BE38">
-        <v>4</v>
-      </c>
       <c r="BF38" t="s">
-        <v>885</v>
+        <v>1114</v>
       </c>
       <c r="BG38" t="s">
-        <v>571</v>
+        <v>1115</v>
       </c>
       <c r="BH38" t="s">
-        <v>886</v>
+        <v>1116</v>
       </c>
       <c r="BI38" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="BJ38">
-        <v>27978693</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>888</v>
+        <v>478</v>
       </c>
       <c r="G39" t="s">
-        <v>889</v>
+        <v>479</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>890</v>
+        <v>480</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="N39" t="s">
         <v>66</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>482</v>
       </c>
       <c r="V39" t="s">
-        <v>891</v>
+        <v>483</v>
       </c>
       <c r="W39" t="s">
-        <v>892</v>
+        <v>484</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>893</v>
+        <v>485</v>
       </c>
       <c r="Y39" t="s">
-        <v>894</v>
+        <v>486</v>
       </c>
       <c r="Z39" t="s">
-        <v>895</v>
+        <v>487</v>
       </c>
       <c r="AC39" t="s">
-        <v>896</v>
+        <v>488</v>
       </c>
       <c r="AD39" t="s">
-        <v>897</v>
+        <v>489</v>
       </c>
       <c r="AE39" t="s">
-        <v>898</v>
+        <v>490</v>
       </c>
       <c r="AF39">
-        <v>35</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>6.3999999980000002</v>
+        <v>146</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>2</v>
       </c>
       <c r="AH39">
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ39">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AK39" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="AL39" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="AM39" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="AN39" t="s">
-        <v>539</v>
+        <v>494</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>495</v>
       </c>
       <c r="AQ39" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="AR39" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="AS39" s="1" t="s">
-        <v>880</v>
+        <v>497</v>
       </c>
       <c r="AT39" s="3" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>171</v>
+        <v>498</v>
+      </c>
+      <c r="AV39" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BA39" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BB39" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="BC39" t="s">
-        <v>899</v>
+        <v>502</v>
       </c>
       <c r="BE39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="BF39" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="BG39" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="BH39" t="s">
-        <v>900</v>
+        <v>505</v>
       </c>
       <c r="BI39" s="2" t="s">
-        <v>901</v>
+        <v>506</v>
       </c>
       <c r="BJ39">
-        <v>27982089</v>
+        <v>27592595</v>
       </c>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
       <c r="G40" t="s">
-        <v>903</v>
+        <v>862</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
       <c r="N40" t="s">
         <v>66</v>
@@ -9490,121 +9464,124 @@
       <c r="O40" t="s">
         <v>67</v>
       </c>
-      <c r="U40" t="s">
-        <v>906</v>
-      </c>
       <c r="V40" t="s">
-        <v>907</v>
+        <v>865</v>
       </c>
       <c r="W40" t="s">
-        <v>908</v>
+        <v>866</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>909</v>
+        <v>867</v>
       </c>
       <c r="Y40" t="s">
-        <v>910</v>
+        <v>868</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>869</v>
       </c>
       <c r="AC40" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
       <c r="AD40" t="s">
-        <v>912</v>
+        <v>871</v>
       </c>
       <c r="AE40" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
       <c r="AF40">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG40" s="4">
-        <v>6.9142857119999999</v>
+        <v>3</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AJ40">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AK40" t="s">
-        <v>914</v>
+        <v>221</v>
       </c>
       <c r="AL40" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="AM40" t="s">
-        <v>915</v>
+        <v>223</v>
       </c>
       <c r="AN40" t="s">
-        <v>916</v>
+        <v>873</v>
       </c>
       <c r="AO40" t="s">
-        <v>917</v>
+        <v>874</v>
       </c>
       <c r="AQ40" t="s">
-        <v>918</v>
+        <v>875</v>
       </c>
       <c r="AR40" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
       <c r="AS40" s="1" t="s">
-        <v>920</v>
+        <v>877</v>
       </c>
       <c r="AT40" s="3" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>921</v>
+        <v>878</v>
+      </c>
+      <c r="AV40" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="BA40" s="1" t="s">
-        <v>922</v>
+        <v>879</v>
       </c>
       <c r="BB40" s="1" t="s">
-        <v>923</v>
+        <v>880</v>
       </c>
       <c r="BC40" t="s">
-        <v>924</v>
+        <v>881</v>
       </c>
       <c r="BE40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BF40" t="s">
-        <v>925</v>
+        <v>882</v>
       </c>
       <c r="BG40" t="s">
-        <v>926</v>
+        <v>570</v>
       </c>
       <c r="BH40" t="s">
-        <v>927</v>
+        <v>883</v>
       </c>
       <c r="BI40" s="2" t="s">
-        <v>928</v>
+        <v>884</v>
       </c>
       <c r="BJ40">
-        <v>27479048</v>
+        <v>27978693</v>
       </c>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>929</v>
+        <v>1118</v>
       </c>
       <c r="G41" t="s">
-        <v>930</v>
+        <v>1119</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>931</v>
+        <v>1120</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>528</v>
+        <v>1121</v>
       </c>
       <c r="N41" t="s">
         <v>66</v>
@@ -9612,234 +9589,249 @@
       <c r="O41" t="s">
         <v>67</v>
       </c>
+      <c r="U41" t="s">
+        <v>1122</v>
+      </c>
       <c r="V41" t="s">
-        <v>932</v>
+        <v>1123</v>
       </c>
       <c r="W41" t="s">
-        <v>933</v>
+        <v>1124</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>934</v>
+        <v>1125</v>
       </c>
       <c r="Y41" t="s">
-        <v>935</v>
+        <v>1126</v>
       </c>
       <c r="Z41" t="s">
-        <v>936</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>937</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>938</v>
+        <v>1127</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1129</v>
       </c>
       <c r="AE41" t="s">
-        <v>939</v>
+        <v>1130</v>
       </c>
       <c r="AF41">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG41" s="4">
-        <v>7.4285714260000004</v>
+        <v>3</v>
       </c>
       <c r="AH41">
         <v>1</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ41">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AK41" t="s">
-        <v>537</v>
+        <v>826</v>
       </c>
       <c r="AL41" t="s">
-        <v>466</v>
+        <v>250</v>
       </c>
       <c r="AM41" t="s">
-        <v>538</v>
+        <v>827</v>
       </c>
       <c r="AN41" t="s">
-        <v>539</v>
+        <v>1131</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>1132</v>
       </c>
       <c r="AQ41" t="s">
-        <v>540</v>
+        <v>1133</v>
       </c>
       <c r="AR41" t="s">
-        <v>541</v>
+        <v>1134</v>
       </c>
       <c r="AS41" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AT41" s="3" t="s">
-        <v>86</v>
+        <v>1147</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>171</v>
+        <v>1135</v>
+      </c>
+      <c r="BA41" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BB41" s="1" t="s">
+        <v>1136</v>
       </c>
       <c r="BC41" t="s">
-        <v>940</v>
+        <v>1137</v>
       </c>
       <c r="BE41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BF41" t="s">
-        <v>543</v>
+        <v>1138</v>
       </c>
       <c r="BG41" t="s">
-        <v>544</v>
+        <v>1139</v>
       </c>
       <c r="BH41" t="s">
-        <v>941</v>
+        <v>1140</v>
       </c>
       <c r="BI41" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="BJ41">
-        <v>27976672</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>943</v>
+        <v>507</v>
       </c>
       <c r="G42" t="s">
-        <v>944</v>
+        <v>508</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>946</v>
+        <v>210</v>
       </c>
       <c r="N42" t="s">
-        <v>947</v>
+        <v>66</v>
       </c>
       <c r="O42" t="s">
         <v>67</v>
       </c>
       <c r="U42" t="s">
-        <v>948</v>
+        <v>510</v>
       </c>
       <c r="V42" t="s">
-        <v>949</v>
+        <v>511</v>
       </c>
       <c r="W42" t="s">
-        <v>950</v>
+        <v>512</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>951</v>
+        <v>513</v>
       </c>
       <c r="Y42" t="s">
-        <v>952</v>
+        <v>514</v>
       </c>
       <c r="Z42" t="s">
-        <v>953</v>
+        <v>190</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>515</v>
       </c>
       <c r="AC42" t="s">
-        <v>954</v>
+        <v>516</v>
       </c>
       <c r="AD42" t="s">
-        <v>955</v>
+        <v>517</v>
       </c>
       <c r="AE42" t="s">
-        <v>956</v>
+        <v>518</v>
       </c>
       <c r="AF42">
-        <v>20</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>7.9428571400000001</v>
+        <v>42</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>32</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK42" t="s">
-        <v>957</v>
+        <v>221</v>
       </c>
       <c r="AL42" t="s">
-        <v>958</v>
+        <v>222</v>
       </c>
       <c r="AM42" t="s">
-        <v>959</v>
+        <v>223</v>
       </c>
       <c r="AN42" t="s">
-        <v>960</v>
+        <v>224</v>
       </c>
       <c r="AQ42" t="s">
-        <v>961</v>
+        <v>225</v>
       </c>
       <c r="AR42" t="s">
-        <v>962</v>
+        <v>226</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>920</v>
+        <v>497</v>
       </c>
       <c r="AT42" s="3" t="s">
-        <v>86</v>
+        <v>1150</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>963</v>
+        <v>520</v>
       </c>
       <c r="BB42" s="1" t="s">
-        <v>964</v>
+        <v>521</v>
       </c>
       <c r="BC42" t="s">
-        <v>965</v>
+        <v>522</v>
       </c>
       <c r="BE42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BF42" t="s">
-        <v>966</v>
+        <v>232</v>
       </c>
       <c r="BG42" t="s">
-        <v>571</v>
+        <v>233</v>
       </c>
       <c r="BH42" t="s">
-        <v>967</v>
+        <v>523</v>
       </c>
       <c r="BI42" s="2" t="s">
-        <v>968</v>
+        <v>524</v>
+      </c>
+      <c r="BJ42">
+        <v>27998152</v>
       </c>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="G43" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>972</v>
+        <v>528</v>
       </c>
       <c r="N43" t="s">
         <v>66</v>
@@ -9847,115 +9839,112 @@
       <c r="O43" t="s">
         <v>67</v>
       </c>
-      <c r="U43" t="s">
-        <v>973</v>
-      </c>
       <c r="V43" t="s">
-        <v>974</v>
+        <v>888</v>
       </c>
       <c r="W43" t="s">
-        <v>975</v>
+        <v>889</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>976</v>
+        <v>890</v>
       </c>
       <c r="Y43" t="s">
-        <v>977</v>
+        <v>891</v>
       </c>
       <c r="Z43" t="s">
-        <v>978</v>
+        <v>892</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>893</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>894</v>
       </c>
       <c r="AE43" t="s">
-        <v>979</v>
+        <v>895</v>
       </c>
       <c r="AF43">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AG43" s="4">
-        <v>8.4571428540000007</v>
+        <v>2</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AJ43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AK43" t="s">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AL43" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AM43" t="s">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AN43" t="s">
-        <v>980</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>981</v>
+        <v>538</v>
       </c>
       <c r="AQ43" t="s">
-        <v>982</v>
+        <v>539</v>
       </c>
       <c r="AR43" t="s">
-        <v>983</v>
+        <v>540</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>920</v>
+        <v>877</v>
       </c>
       <c r="AT43" s="3" t="s">
-        <v>86</v>
+        <v>1147</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="BA43" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="BB43" s="1" t="s">
-        <v>986</v>
+        <v>171</v>
       </c>
       <c r="BC43" t="s">
-        <v>987</v>
+        <v>896</v>
       </c>
       <c r="BE43">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BF43" t="s">
-        <v>988</v>
+        <v>542</v>
       </c>
       <c r="BG43" t="s">
-        <v>393</v>
+        <v>543</v>
       </c>
       <c r="BH43" t="s">
-        <v>989</v>
+        <v>897</v>
       </c>
       <c r="BI43" s="2" t="s">
-        <v>990</v>
+        <v>898</v>
+      </c>
+      <c r="BJ43">
+        <v>27982089</v>
       </c>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>991</v>
+        <v>525</v>
       </c>
       <c r="G44" t="s">
-        <v>992</v>
+        <v>526</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>993</v>
+        <v>527</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>972</v>
+        <v>528</v>
       </c>
       <c r="N44" t="s">
         <v>66</v>
@@ -9963,121 +9952,112 @@
       <c r="O44" t="s">
         <v>67</v>
       </c>
-      <c r="U44" t="s">
-        <v>994</v>
-      </c>
       <c r="V44" t="s">
-        <v>995</v>
+        <v>529</v>
       </c>
       <c r="W44" t="s">
-        <v>996</v>
+        <v>530</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>997</v>
+        <v>1154</v>
       </c>
       <c r="Y44" t="s">
-        <v>998</v>
+        <v>531</v>
       </c>
       <c r="Z44" t="s">
-        <v>999</v>
+        <v>532</v>
       </c>
       <c r="AC44" t="s">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="AD44" t="s">
-        <v>1001</v>
+        <v>534</v>
       </c>
       <c r="AE44" t="s">
-        <v>1002</v>
+        <v>535</v>
       </c>
       <c r="AF44">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="AG44" s="4">
-        <v>8.9714285680000003</v>
+        <v>6</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK44" t="s">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AL44" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AM44" t="s">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AN44" t="s">
-        <v>980</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>981</v>
+        <v>538</v>
       </c>
       <c r="AQ44" t="s">
-        <v>982</v>
+        <v>539</v>
       </c>
       <c r="AR44" t="s">
-        <v>983</v>
+        <v>540</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>920</v>
+        <v>497</v>
       </c>
       <c r="AT44" s="3" t="s">
-        <v>86</v>
+        <v>1147</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="BA44" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BB44" s="1" t="s">
-        <v>1004</v>
+        <v>171</v>
       </c>
       <c r="BC44" t="s">
-        <v>1005</v>
+        <v>541</v>
       </c>
       <c r="BE44">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BF44" t="s">
-        <v>988</v>
+        <v>542</v>
       </c>
       <c r="BG44" t="s">
-        <v>393</v>
+        <v>543</v>
       </c>
       <c r="BH44" t="s">
-        <v>989</v>
+        <v>544</v>
       </c>
       <c r="BI44" s="2" t="s">
-        <v>1006</v>
+        <v>545</v>
+      </c>
+      <c r="BJ44">
+        <v>28000796</v>
       </c>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>1007</v>
+        <v>899</v>
       </c>
       <c r="G45" t="s">
-        <v>1008</v>
+        <v>900</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>1009</v>
+        <v>901</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="N45" t="s">
         <v>66</v>
@@ -10086,120 +10066,120 @@
         <v>67</v>
       </c>
       <c r="U45" t="s">
-        <v>1010</v>
+        <v>903</v>
       </c>
       <c r="V45" t="s">
-        <v>1011</v>
+        <v>904</v>
       </c>
       <c r="W45" t="s">
-        <v>1012</v>
+        <v>905</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>1013</v>
+        <v>906</v>
       </c>
       <c r="Y45" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>1015</v>
+        <v>907</v>
       </c>
       <c r="AC45" t="s">
-        <v>1016</v>
+        <v>908</v>
       </c>
       <c r="AD45" t="s">
-        <v>1017</v>
+        <v>909</v>
       </c>
       <c r="AE45" t="s">
-        <v>1018</v>
+        <v>910</v>
       </c>
       <c r="AF45">
-        <v>16</v>
-      </c>
-      <c r="AG45" s="4">
-        <v>9.485714282</v>
+        <v>48</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>4</v>
       </c>
       <c r="AH45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AJ45">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AK45" t="s">
-        <v>78</v>
+        <v>911</v>
       </c>
       <c r="AL45" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM45" t="s">
-        <v>80</v>
+        <v>912</v>
       </c>
       <c r="AN45" t="s">
-        <v>980</v>
+        <v>913</v>
       </c>
       <c r="AO45" t="s">
-        <v>981</v>
+        <v>914</v>
       </c>
       <c r="AQ45" t="s">
-        <v>982</v>
+        <v>915</v>
       </c>
       <c r="AR45" t="s">
-        <v>983</v>
+        <v>916</v>
       </c>
       <c r="AS45" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AT45" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU45" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="BA45" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="BB45" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="AT45" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AU45" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="BA45" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="BB45" s="1" t="s">
-        <v>1020</v>
-      </c>
       <c r="BC45" t="s">
-        <v>1021</v>
+        <v>921</v>
       </c>
       <c r="BE45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF45" t="s">
-        <v>988</v>
+        <v>922</v>
       </c>
       <c r="BG45" t="s">
-        <v>393</v>
+        <v>923</v>
       </c>
       <c r="BH45" t="s">
-        <v>989</v>
+        <v>924</v>
       </c>
       <c r="BI45" s="2" t="s">
-        <v>1022</v>
+        <v>925</v>
+      </c>
+      <c r="BJ45">
+        <v>27479048</v>
       </c>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>1023</v>
+        <v>546</v>
       </c>
       <c r="G46" t="s">
-        <v>1024</v>
+        <v>547</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>1025</v>
+        <v>548</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>972</v>
+        <v>549</v>
       </c>
       <c r="N46" t="s">
         <v>66</v>
@@ -10207,118 +10187,124 @@
       <c r="O46" t="s">
         <v>67</v>
       </c>
-      <c r="U46" t="s">
-        <v>1026</v>
+      <c r="V46" t="s">
+        <v>550</v>
       </c>
       <c r="W46" t="s">
-        <v>1027</v>
+        <v>551</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>1028</v>
+        <v>552</v>
       </c>
       <c r="Y46" t="s">
-        <v>1029</v>
+        <v>553</v>
       </c>
       <c r="Z46" t="s">
-        <v>1030</v>
+        <v>554</v>
       </c>
       <c r="AC46" t="s">
-        <v>1031</v>
+        <v>555</v>
       </c>
       <c r="AD46" t="s">
-        <v>1032</v>
+        <v>556</v>
       </c>
       <c r="AE46" t="s">
-        <v>1033</v>
+        <v>557</v>
       </c>
       <c r="AF46">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="AG46" s="4">
-        <v>9.9999999959999997</v>
+        <v>5</v>
       </c>
       <c r="AH46">
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AJ46">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AK46" t="s">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="AL46" t="s">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AM46" t="s">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AN46" t="s">
-        <v>980</v>
+        <v>561</v>
       </c>
       <c r="AO46" t="s">
-        <v>981</v>
+        <v>562</v>
       </c>
       <c r="AQ46" t="s">
-        <v>982</v>
+        <v>563</v>
       </c>
       <c r="AR46" t="s">
-        <v>983</v>
+        <v>564</v>
       </c>
       <c r="AS46" s="1" t="s">
-        <v>920</v>
+        <v>497</v>
       </c>
       <c r="AT46" s="3" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>984</v>
+        <v>565</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="BA46" s="1" t="s">
-        <v>1034</v>
+        <v>566</v>
       </c>
       <c r="BB46" s="1" t="s">
-        <v>1035</v>
+        <v>567</v>
       </c>
       <c r="BC46" t="s">
-        <v>1036</v>
+        <v>568</v>
       </c>
       <c r="BE46">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BF46" t="s">
-        <v>988</v>
+        <v>569</v>
       </c>
       <c r="BG46" t="s">
-        <v>393</v>
+        <v>570</v>
       </c>
       <c r="BH46" t="s">
-        <v>989</v>
+        <v>571</v>
       </c>
       <c r="BI46" s="2" t="s">
-        <v>1037</v>
+        <v>572</v>
+      </c>
+      <c r="BJ46">
+        <v>27858011</v>
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>1038</v>
+        <v>573</v>
       </c>
       <c r="G47" t="s">
-        <v>1039</v>
+        <v>574</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>1040</v>
+        <v>575</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="N47" t="s">
         <v>66</v>
@@ -10327,117 +10313,126 @@
         <v>67</v>
       </c>
       <c r="U47" t="s">
-        <v>1041</v>
+        <v>576</v>
       </c>
       <c r="V47" t="s">
-        <v>1042</v>
+        <v>577</v>
       </c>
       <c r="W47" t="s">
-        <v>1043</v>
+        <v>578</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>1044</v>
+        <v>579</v>
       </c>
       <c r="Y47" t="s">
-        <v>1045</v>
+        <v>580</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>582</v>
       </c>
       <c r="AC47" t="s">
-        <v>1046</v>
+        <v>583</v>
       </c>
       <c r="AD47" t="s">
-        <v>1047</v>
+        <v>584</v>
       </c>
       <c r="AE47" t="s">
-        <v>1048</v>
+        <v>585</v>
       </c>
       <c r="AF47">
-        <v>24</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>10.514285709999999</v>
+        <v>44</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>3</v>
       </c>
       <c r="AH47">
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="AJ47">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="AK47" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="AL47" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="AM47" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="AN47" t="s">
-        <v>385</v>
+        <v>252</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>253</v>
       </c>
       <c r="AQ47" t="s">
-        <v>386</v>
+        <v>254</v>
       </c>
       <c r="AR47" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
       <c r="AS47" s="1" t="s">
-        <v>920</v>
+        <v>497</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AW47" s="1" t="s">
-        <v>1050</v>
+        <v>256</v>
+      </c>
+      <c r="AV47" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="BA47" s="1" t="s">
-        <v>1051</v>
+        <v>586</v>
       </c>
       <c r="BB47" s="1" t="s">
-        <v>1052</v>
+        <v>587</v>
       </c>
       <c r="BC47" t="s">
-        <v>1053</v>
+        <v>588</v>
       </c>
       <c r="BE47">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BF47" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="BG47" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="BH47" t="s">
-        <v>1054</v>
+        <v>589</v>
       </c>
       <c r="BI47" s="2" t="s">
-        <v>1055</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>1056</v>
+        <v>591</v>
       </c>
       <c r="G48" t="s">
-        <v>1057</v>
+        <v>592</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>1058</v>
+        <v>593</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="N48" t="s">
         <v>66</v>
@@ -10446,120 +10441,123 @@
         <v>67</v>
       </c>
       <c r="U48" t="s">
-        <v>1059</v>
+        <v>594</v>
       </c>
       <c r="V48" t="s">
-        <v>1060</v>
+        <v>595</v>
       </c>
       <c r="W48" t="s">
-        <v>1061</v>
+        <v>596</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>1062</v>
+        <v>597</v>
       </c>
       <c r="Y48" t="s">
-        <v>1063</v>
+        <v>598</v>
       </c>
       <c r="Z48" t="s">
-        <v>1064</v>
+        <v>599</v>
       </c>
       <c r="AC48" t="s">
-        <v>1065</v>
+        <v>600</v>
       </c>
       <c r="AD48" t="s">
-        <v>1066</v>
+        <v>601</v>
       </c>
       <c r="AE48" t="s">
-        <v>1067</v>
+        <v>602</v>
       </c>
       <c r="AF48">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AG48" s="4">
-        <v>11.028571424000001</v>
+        <v>3</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48">
+        <v>40</v>
+      </c>
+      <c r="AJ48">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AT48" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV48" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="BB48" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>605</v>
+      </c>
+      <c r="BE48">
         <v>9</v>
       </c>
-      <c r="AJ48">
-        <v>9</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>385</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>387</v>
-      </c>
-      <c r="AS48" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="AT48" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AU48" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AW48" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="BA48" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="BB48" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="BC48" t="s">
-        <v>1070</v>
-      </c>
-      <c r="BE48">
-        <v>13</v>
-      </c>
       <c r="BF48" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="BG48" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="BH48" t="s">
-        <v>1054</v>
+        <v>589</v>
       </c>
       <c r="BI48" s="2" t="s">
-        <v>1071</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>1072</v>
+        <v>607</v>
       </c>
       <c r="G49" t="s">
-        <v>1073</v>
+        <v>608</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>1074</v>
+        <v>609</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>1075</v>
+        <v>610</v>
       </c>
       <c r="N49" t="s">
         <v>66</v>
@@ -10567,124 +10565,121 @@
       <c r="O49" t="s">
         <v>67</v>
       </c>
+      <c r="U49" t="s">
+        <v>611</v>
+      </c>
       <c r="V49" t="s">
-        <v>1076</v>
+        <v>612</v>
       </c>
       <c r="W49" t="s">
-        <v>1077</v>
+        <v>613</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>1078</v>
+        <v>614</v>
       </c>
       <c r="Y49" t="s">
-        <v>1079</v>
+        <v>615</v>
       </c>
       <c r="Z49" t="s">
-        <v>1080</v>
+        <v>616</v>
       </c>
       <c r="AC49" t="s">
-        <v>1081</v>
+        <v>617</v>
       </c>
       <c r="AD49" t="s">
-        <v>1082</v>
+        <v>618</v>
       </c>
       <c r="AE49" t="s">
-        <v>1083</v>
+        <v>619</v>
       </c>
       <c r="AF49">
-        <v>20</v>
-      </c>
-      <c r="AG49" s="4">
-        <v>11.542857138</v>
+        <v>53</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>4</v>
       </c>
       <c r="AH49">
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="AJ49">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="AK49" t="s">
-        <v>1084</v>
+        <v>620</v>
       </c>
       <c r="AL49" t="s">
-        <v>222</v>
+        <v>621</v>
       </c>
       <c r="AM49" t="s">
-        <v>1085</v>
+        <v>622</v>
       </c>
       <c r="AN49" t="s">
-        <v>1086</v>
+        <v>623</v>
       </c>
       <c r="AO49" t="s">
-        <v>1087</v>
+        <v>624</v>
       </c>
       <c r="AQ49" t="s">
-        <v>1088</v>
+        <v>625</v>
       </c>
       <c r="AR49" t="s">
-        <v>1089</v>
+        <v>626</v>
       </c>
       <c r="AS49" s="1" t="s">
-        <v>920</v>
+        <v>497</v>
       </c>
       <c r="AT49" s="3" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>256</v>
+        <v>627</v>
       </c>
       <c r="AV49" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="BA49" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="BB49" s="1" t="s">
-        <v>1091</v>
+        <v>519</v>
       </c>
       <c r="BC49" t="s">
-        <v>1092</v>
+        <v>628</v>
       </c>
       <c r="BE49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BF49" t="s">
-        <v>1093</v>
+        <v>629</v>
       </c>
       <c r="BG49" t="s">
-        <v>1093</v>
+        <v>174</v>
       </c>
       <c r="BH49" t="s">
-        <v>1094</v>
+        <v>630</v>
       </c>
       <c r="BI49" s="2" t="s">
-        <v>1095</v>
+        <v>631</v>
       </c>
       <c r="BJ49">
-        <v>27973478</v>
+        <v>27783569</v>
       </c>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>1096</v>
+        <v>632</v>
       </c>
       <c r="G50" t="s">
-        <v>1097</v>
+        <v>633</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1098</v>
+        <v>634</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1099</v>
+        <v>635</v>
       </c>
       <c r="N50" t="s">
         <v>66</v>
@@ -10693,120 +10688,120 @@
         <v>67</v>
       </c>
       <c r="U50" t="s">
-        <v>1100</v>
+        <v>636</v>
       </c>
       <c r="V50" t="s">
-        <v>1101</v>
+        <v>637</v>
       </c>
       <c r="W50" t="s">
-        <v>1102</v>
+        <v>638</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>1103</v>
+        <v>1155</v>
       </c>
       <c r="Y50" t="s">
-        <v>1104</v>
+        <v>639</v>
       </c>
       <c r="Z50" t="s">
-        <v>1105</v>
+        <v>640</v>
       </c>
       <c r="AC50" t="s">
-        <v>1106</v>
+        <v>641</v>
       </c>
       <c r="AD50" t="s">
-        <v>1107</v>
+        <v>642</v>
       </c>
       <c r="AE50" t="s">
-        <v>1108</v>
+        <v>643</v>
       </c>
       <c r="AF50">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AG50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="s">
-        <v>829</v>
+        <v>249</v>
       </c>
       <c r="AL50" t="s">
         <v>250</v>
       </c>
       <c r="AM50" t="s">
-        <v>830</v>
+        <v>251</v>
       </c>
       <c r="AN50" t="s">
-        <v>1109</v>
+        <v>644</v>
       </c>
       <c r="AO50" t="s">
-        <v>1110</v>
+        <v>645</v>
       </c>
       <c r="AQ50" t="s">
-        <v>1111</v>
+        <v>646</v>
       </c>
       <c r="AR50" t="s">
-        <v>1112</v>
+        <v>647</v>
       </c>
       <c r="AS50" s="1" t="s">
-        <v>920</v>
+        <v>648</v>
       </c>
       <c r="AT50" s="3" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>1113</v>
+        <v>649</v>
       </c>
       <c r="BA50" s="1" t="s">
-        <v>1114</v>
+        <v>650</v>
       </c>
       <c r="BB50" s="1" t="s">
-        <v>1115</v>
+        <v>651</v>
       </c>
       <c r="BC50" t="s">
-        <v>1116</v>
+        <v>652</v>
       </c>
       <c r="BE50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF50" t="s">
-        <v>1117</v>
+        <v>653</v>
       </c>
       <c r="BG50" t="s">
-        <v>1118</v>
+        <v>653</v>
       </c>
       <c r="BH50" t="s">
-        <v>1119</v>
+        <v>654</v>
       </c>
       <c r="BI50" s="2" t="s">
-        <v>1120</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>1121</v>
+        <v>656</v>
       </c>
       <c r="G51" t="s">
-        <v>1122</v>
+        <v>657</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1123</v>
+        <v>658</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1124</v>
+        <v>659</v>
       </c>
       <c r="N51" t="s">
         <v>66</v>
@@ -10814,106 +10809,94 @@
       <c r="O51" t="s">
         <v>67</v>
       </c>
-      <c r="U51" t="s">
-        <v>1125</v>
-      </c>
       <c r="V51" t="s">
-        <v>1126</v>
+        <v>660</v>
       </c>
       <c r="W51" t="s">
-        <v>1127</v>
+        <v>661</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>1128</v>
+        <v>662</v>
       </c>
       <c r="Y51" t="s">
-        <v>1129</v>
+        <v>663</v>
       </c>
       <c r="Z51" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>1132</v>
+        <v>664</v>
       </c>
       <c r="AE51" t="s">
-        <v>1133</v>
+        <v>665</v>
       </c>
       <c r="AF51">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AG51" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="s">
-        <v>829</v>
+        <v>666</v>
       </c>
       <c r="AL51" t="s">
-        <v>250</v>
+        <v>667</v>
       </c>
       <c r="AM51" t="s">
-        <v>830</v>
+        <v>668</v>
       </c>
       <c r="AN51" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>1135</v>
+        <v>669</v>
       </c>
       <c r="AQ51" t="s">
-        <v>1136</v>
+        <v>659</v>
       </c>
       <c r="AR51" t="s">
-        <v>1137</v>
+        <v>670</v>
       </c>
       <c r="AS51" s="1" t="s">
-        <v>920</v>
+        <v>648</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="BA51" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="BB51" s="1" t="s">
-        <v>1139</v>
+        <v>671</v>
+      </c>
+      <c r="AV51" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="BC51" t="s">
-        <v>1140</v>
+        <v>672</v>
       </c>
       <c r="BE51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BF51" t="s">
-        <v>1141</v>
+        <v>542</v>
       </c>
       <c r="BG51" t="s">
-        <v>1142</v>
+        <v>543</v>
       </c>
       <c r="BH51" t="s">
-        <v>1143</v>
+        <v>673</v>
       </c>
       <c r="BI51" s="2" t="s">
-        <v>1144</v>
+        <v>674</v>
+      </c>
+      <c r="BJ51">
+        <v>27997578</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:BJ23885">
-    <sortCondition ref="A2:A23885"/>
+  <sortState ref="A2:BJ51">
+    <sortCondition descending="1" ref="AT2"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
